--- a/Documentation.xlsx
+++ b/Documentation.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bulat\AppData\Local\Temp\Rar$DIa14768.1464\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inash\source\repos\emotionsrecognitionsystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8616"/>
   </bookViews>
   <sheets>
     <sheet name="Первичная страница" sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="277">
   <si>
     <t>Количество изображений: 60 000</t>
   </si>
@@ -1964,12 +1964,18 @@
   <si>
     <t>Основные макросы:</t>
   </si>
+  <si>
+    <t>number_of_images - можно использовать не все 60 000 изображений, а ограничаить их количество ("-1" -  не менять размер выборки, т.е. оставить 60 000)</t>
+  </si>
+  <si>
+    <t>number_of_test_images - количество изображений из тренировочного сета для верификации и прослеживания обучения НС</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2408,7 +2414,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -2824,6 +2830,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-50D8-44B6-AD54-6B6A57E51586}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3111,7 +3122,7 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3154,6 +3165,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3511,6 +3523,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5D93-499C-A007-07C68DDB5E6E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3557,6 +3574,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3676,6 +3694,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3786,7 +3805,7 @@
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3830,6 +3849,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4190,6 +4210,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4C7D-4718-A418-2679B59B96CA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4250,6 +4275,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4369,6 +4395,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4479,7 +4506,7 @@
 </file>
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -4522,6 +4549,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4672,6 +4700,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ED56-4CFE-95ED-D162D105E5BD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4732,6 +4765,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4851,6 +4885,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4961,7 +4996,7 @@
 </file>
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -5004,6 +5039,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5094,6 +5130,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3B1A-4684-ADDD-9689679DCF48}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -5140,6 +5181,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5264,6 +5306,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5374,7 +5417,7 @@
 </file>
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -5779,6 +5822,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-567D-459D-B44A-3E781C107A94}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -6056,7 +6104,7 @@
 </file>
 
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -6306,6 +6354,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B884-42A9-939D-8358DE046C97}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -6583,7 +6636,7 @@
 </file>
 
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -6718,6 +6771,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EBDD-4344-8D50-B545081D7D89}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -6995,7 +7053,7 @@
 </file>
 
 <file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -7115,6 +7173,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-93B2-4AEF-9B48-9DCC3DDF397E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -7392,7 +7455,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -7531,6 +7594,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1236-42AE-AD16-87C5B08FABCF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -7818,7 +7886,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -8012,6 +8080,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4C6D-4E66-B3A8-022775FD11AF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -8287,7 +8360,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -8406,6 +8479,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B2B1-4F9C-911E-13D70C18438B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -8681,7 +8759,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -9398,6 +9476,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4ED1-49A4-B559-AA0A3CB281E1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -10042,6 +10125,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4ED1-49A4-B559-AA0A3CB281E1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -10238,7 +10326,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -10282,6 +10370,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10642,6 +10731,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5160-4F9A-BBB0-B5390123CAF9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -10688,6 +10782,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10807,6 +10902,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10917,7 +11013,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -10961,6 +11057,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11321,6 +11418,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AB7D-4847-A145-DE7739A2C16A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -11367,6 +11469,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11486,6 +11589,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11596,7 +11700,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -11640,6 +11744,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11790,6 +11895,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6672-47DD-9F3C-4842F2BB8E2C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -11855,6 +11965,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11974,6 +12085,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -12084,7 +12196,7 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -12128,6 +12240,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12218,6 +12331,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E4C1-4439-8CD4-54C7C26461DD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -12269,6 +12387,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -12388,6 +12507,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -24048,166 +24168,176 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C66"/>
+  <dimension ref="A2:C68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="K61" sqref="K61"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="P69" sqref="P69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" s="52" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="B7" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2">
       <c r="B8" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2">
       <c r="B9" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2">
       <c r="B10" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2">
       <c r="B11" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2">
       <c r="B12" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2">
       <c r="A14" s="52" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3">
       <c r="B42" s="52" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3">
       <c r="B43" s="52" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3">
       <c r="C45" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3">
       <c r="C46" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3">
       <c r="C47" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3">
       <c r="C48" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:3">
       <c r="C49" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:3">
       <c r="C50" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:3">
       <c r="C51" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:3">
       <c r="C52" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:3">
       <c r="C53" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C55" s="60" t="s">
+    <row r="54" spans="2:3">
+      <c r="C54" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3">
+      <c r="C55" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3">
+      <c r="C57" s="60" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B57" s="52" t="s">
+    <row r="59" spans="2:3">
+      <c r="B59" s="52" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C59" t="s">
+    <row r="61" spans="2:3">
+      <c r="C61" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C60" t="s">
+    <row r="62" spans="2:3">
+      <c r="C62" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C61" t="s">
+    <row r="63" spans="2:3">
+      <c r="C63" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C62" t="s">
+    <row r="64" spans="2:3">
+      <c r="C64" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B64" s="52" t="s">
+    <row r="66" spans="2:2">
+      <c r="B66" s="52" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B65" s="52" t="s">
+    <row r="67" spans="2:2">
+      <c r="B67" s="52" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B66" s="52" t="s">
+    <row r="68" spans="2:2">
+      <c r="B68" s="52" t="s">
         <v>268</v>
       </c>
     </row>
@@ -24222,13 +24352,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ162"/>
   <sheetViews>
-    <sheetView topLeftCell="A140" zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L162" sqref="L162"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30">
       <c r="AA1">
         <v>7.2472979999999998</v>
       </c>
@@ -24242,7 +24372,7 @@
         <v>2.9367549999999998</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -24259,7 +24389,7 @@
         <v>2.393923</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30">
       <c r="AA3">
         <v>6.5160960000000001</v>
       </c>
@@ -24273,7 +24403,7 @@
         <v>2.2284790000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30">
       <c r="B4" t="s">
         <v>58</v>
       </c>
@@ -24306,7 +24436,7 @@
         <v>2.1830409999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30">
       <c r="B5" s="23" t="s">
         <v>57</v>
       </c>
@@ -24346,7 +24476,7 @@
         <v>2.1492589999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30">
       <c r="AA6">
         <v>5.6039539999999999</v>
       </c>
@@ -24357,7 +24487,7 @@
         <v>2.253911</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30">
       <c r="AA7">
         <v>5.3303859999999998</v>
       </c>
@@ -24368,7 +24498,7 @@
         <v>2.7873290000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30">
       <c r="AA8">
         <v>5.0688259999999996</v>
       </c>
@@ -24379,7 +24509,7 @@
         <v>2.5505979999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30">
       <c r="AA9">
         <v>4.8183879999999997</v>
       </c>
@@ -24390,7 +24520,7 @@
         <v>2.3563269999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30">
       <c r="AA10">
         <v>4.5779750000000003</v>
       </c>
@@ -24401,7 +24531,7 @@
         <v>2.3575870000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30">
       <c r="AA11">
         <v>4.3483960000000002</v>
       </c>
@@ -24409,7 +24539,7 @@
         <v>2.456121</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30">
       <c r="AA12">
         <v>4.1312069999999999</v>
       </c>
@@ -24417,7 +24547,7 @@
         <v>2.354501</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30">
       <c r="AA13">
         <v>3.9281619999999999</v>
       </c>
@@ -24425,7 +24555,7 @@
         <v>2.3333499999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30">
       <c r="AA14">
         <v>3.739074</v>
       </c>
@@ -24433,7 +24563,7 @@
         <v>2.432137</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30">
       <c r="AA15">
         <v>3.5695749999999999</v>
       </c>
@@ -24441,7 +24571,7 @@
         <v>2.6253730000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30">
       <c r="AA16">
         <v>3.4174959999999999</v>
       </c>
@@ -24449,7 +24579,7 @@
         <v>2.4762469999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28">
       <c r="AA17">
         <v>3.2812790000000001</v>
       </c>
@@ -24457,7 +24587,7 @@
         <v>2.6748050000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28">
       <c r="AA18">
         <v>3.1598109999999999</v>
       </c>
@@ -24465,7 +24595,7 @@
         <v>2.526802</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28">
       <c r="AA19">
         <v>3.0516800000000002</v>
       </c>
@@ -24473,7 +24603,7 @@
         <v>2.488486</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28">
       <c r="AA20">
         <v>2.9538199999999999</v>
       </c>
@@ -24481,7 +24611,7 @@
         <v>3.0811419999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28">
       <c r="AA21">
         <v>2.8652009999999999</v>
       </c>
@@ -24489,7 +24619,7 @@
         <v>3.0022579999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28">
       <c r="AA22">
         <v>2.784351</v>
       </c>
@@ -24497,7 +24627,7 @@
         <v>2.8585199999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28">
       <c r="AA23">
         <v>2.710251</v>
       </c>
@@ -24505,7 +24635,7 @@
         <v>2.8696190000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28">
       <c r="AA24">
         <v>2.643227</v>
       </c>
@@ -24513,7 +24643,7 @@
         <v>2.4105080000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28">
       <c r="AA25">
         <v>2.5812200000000001</v>
       </c>
@@ -24521,7 +24651,7 @@
         <v>2.3313269999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28">
       <c r="A26" t="s">
         <v>45</v>
       </c>
@@ -24544,7 +24674,7 @@
         <v>2.287283</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28">
       <c r="A27" t="s">
         <v>46</v>
       </c>
@@ -24567,7 +24697,7 @@
         <v>2.2494489999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28">
       <c r="A28" t="s">
         <v>63</v>
       </c>
@@ -24590,7 +24720,7 @@
         <v>2.2216529999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28">
       <c r="A29" t="s">
         <v>43</v>
       </c>
@@ -24613,7 +24743,7 @@
         <v>2.1933099999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28">
       <c r="F30" s="28"/>
       <c r="H30" s="28"/>
       <c r="J30" s="28"/>
@@ -24625,7 +24755,7 @@
         <v>2.171875</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:28">
       <c r="A31" t="s">
         <v>49</v>
       </c>
@@ -24645,7 +24775,7 @@
         <v>2.2820670000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:28">
       <c r="A32" t="s">
         <v>51</v>
       </c>
@@ -24665,7 +24795,7 @@
         <v>2.241997</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:27">
       <c r="A33" t="s">
         <v>52</v>
       </c>
@@ -24685,7 +24815,7 @@
         <v>2.2036709999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:27">
       <c r="F34" s="28"/>
       <c r="H34" s="28"/>
       <c r="J34" s="28"/>
@@ -24694,7 +24824,7 @@
         <v>2.1672470000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:27">
       <c r="A35" t="s">
         <v>50</v>
       </c>
@@ -24714,7 +24844,7 @@
         <v>2.1327280000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:27">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -24734,7 +24864,7 @@
         <v>2.1001370000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:27">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -24754,12 +24884,12 @@
         <v>2.0691320000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:27">
       <c r="AA38">
         <v>2.0394399999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:27">
       <c r="A39" s="30" t="s">
         <v>67</v>
       </c>
@@ -24767,12 +24897,12 @@
         <v>2.01118</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:27">
       <c r="AA40">
         <v>1.984307</v>
       </c>
     </row>
-    <row r="41" spans="1:27" ht="15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:27" ht="15">
       <c r="A41" s="42" t="s">
         <v>72</v>
       </c>
@@ -24796,7 +24926,7 @@
         <v>1.9585239999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:27" ht="15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:27" ht="15">
       <c r="A42" s="26" t="s">
         <v>73</v>
       </c>
@@ -24820,7 +24950,7 @@
         <v>1.933746</v>
       </c>
     </row>
-    <row r="43" spans="1:27" ht="15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:27" ht="15">
       <c r="A43" s="26" t="s">
         <v>74</v>
       </c>
@@ -24844,7 +24974,7 @@
         <v>1.909783</v>
       </c>
     </row>
-    <row r="44" spans="1:27" ht="15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:27" ht="15">
       <c r="A44" s="26" t="s">
         <v>75</v>
       </c>
@@ -24868,7 +24998,7 @@
         <v>1.886684</v>
       </c>
     </row>
-    <row r="45" spans="1:27" ht="15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:27" ht="15">
       <c r="A45" s="26" t="s">
         <v>76</v>
       </c>
@@ -24892,7 +25022,7 @@
         <v>1.864036</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:27">
       <c r="A46" s="43"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -24914,7 +25044,7 @@
         <v>1.8417399999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:27" ht="15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:27" ht="15">
       <c r="A47" s="26" t="s">
         <v>77</v>
       </c>
@@ -24938,7 +25068,7 @@
         <v>1.8199890000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:27" ht="15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:27" ht="15">
       <c r="A48" s="26" t="s">
         <v>78</v>
       </c>
@@ -24962,7 +25092,7 @@
         <v>1.7988930000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:27" ht="15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:27" ht="15">
       <c r="A49" s="26" t="s">
         <v>79</v>
       </c>
@@ -24986,7 +25116,7 @@
         <v>1.7784</v>
       </c>
     </row>
-    <row r="50" spans="1:27" ht="15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:27" ht="15">
       <c r="A50" s="44" t="s">
         <v>80</v>
       </c>
@@ -25010,7 +25140,7 @@
         <v>1.758146</v>
       </c>
     </row>
-    <row r="51" spans="1:27" ht="15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:27" ht="15">
       <c r="A51" s="26" t="s">
         <v>81</v>
       </c>
@@ -25034,7 +25164,7 @@
         <v>1.737903</v>
       </c>
     </row>
-    <row r="52" spans="1:27" ht="15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:27" ht="15">
       <c r="A52" s="26" t="s">
         <v>82</v>
       </c>
@@ -25058,7 +25188,7 @@
         <v>1.7181960000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:27" ht="15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:27" ht="15">
       <c r="A53" s="26" t="s">
         <v>83</v>
       </c>
@@ -25082,7 +25212,7 @@
         <v>1.699141</v>
       </c>
     </row>
-    <row r="54" spans="1:27" ht="15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:27" ht="15">
       <c r="A54" s="26" t="s">
         <v>84</v>
       </c>
@@ -25106,7 +25236,7 @@
         <v>1.680653</v>
       </c>
     </row>
-    <row r="55" spans="1:27" ht="15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:27" ht="15">
       <c r="A55" s="26" t="s">
         <v>85</v>
       </c>
@@ -25130,7 +25260,7 @@
         <v>1.6627209999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:27" ht="15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:27" ht="15">
       <c r="A56" s="26" t="s">
         <v>86</v>
       </c>
@@ -25154,7 +25284,7 @@
         <v>1.6447130000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:27" ht="15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:27" ht="15">
       <c r="A57" s="26" t="s">
         <v>87</v>
       </c>
@@ -25178,7 +25308,7 @@
         <v>1.627313</v>
       </c>
     </row>
-    <row r="58" spans="1:27" ht="15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:27" ht="15">
       <c r="A58" s="26" t="s">
         <v>88</v>
       </c>
@@ -25202,7 +25332,7 @@
         <v>1.610466</v>
       </c>
     </row>
-    <row r="59" spans="1:27" ht="15" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:27" ht="15">
       <c r="A59" s="26" t="s">
         <v>89</v>
       </c>
@@ -25226,7 +25356,7 @@
         <v>1.593915</v>
       </c>
     </row>
-    <row r="60" spans="1:27" ht="15" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:27" ht="15">
       <c r="A60" s="26" t="s">
         <v>90</v>
       </c>
@@ -25250,7 +25380,7 @@
         <v>1.577577</v>
       </c>
     </row>
-    <row r="61" spans="1:27" ht="15" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:27" ht="15">
       <c r="A61" s="26" t="s">
         <v>91</v>
       </c>
@@ -25274,7 +25404,7 @@
         <v>1.561391</v>
       </c>
     </row>
-    <row r="62" spans="1:27" ht="15" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:27" ht="15">
       <c r="A62" s="26" t="s">
         <v>92</v>
       </c>
@@ -25298,7 +25428,7 @@
         <v>1.5456719999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:27" ht="15" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:27" ht="15">
       <c r="A63" s="26" t="s">
         <v>93</v>
       </c>
@@ -25322,7 +25452,7 @@
         <v>1.5302359999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:27" ht="15" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:27" ht="15">
       <c r="A64" s="26" t="s">
         <v>94</v>
       </c>
@@ -25346,7 +25476,7 @@
         <v>1.5151190000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:27" ht="15" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:27" ht="15">
       <c r="A65" s="44" t="s">
         <v>95</v>
       </c>
@@ -25370,7 +25500,7 @@
         <v>1.5002770000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:27" ht="15" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:27" ht="15">
       <c r="A66" s="26" t="s">
         <v>30</v>
       </c>
@@ -25394,7 +25524,7 @@
         <v>1.4856670000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:27" ht="15" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:27" ht="15">
       <c r="A67" s="27" t="s">
         <v>96</v>
       </c>
@@ -25418,12 +25548,12 @@
         <v>1.4713000000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:27">
       <c r="AA68">
         <v>1.4571769999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:27" ht="15" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:27">
       <c r="A69" s="36" t="s">
         <v>97</v>
       </c>
@@ -25431,12 +25561,12 @@
         <v>1.443327</v>
       </c>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:27">
       <c r="AA70">
         <v>1.4295770000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:27">
       <c r="A71" s="37" t="s">
         <v>99</v>
       </c>
@@ -25467,7 +25597,7 @@
         <v>1.4158710000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:27">
       <c r="A72" s="38" t="s">
         <v>73</v>
       </c>
@@ -25498,7 +25628,7 @@
         <v>1.4030590000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:27">
       <c r="A73" s="4"/>
       <c r="B73" s="39" t="s">
         <v>100</v>
@@ -25529,7 +25659,7 @@
         <v>1.390326</v>
       </c>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:27">
       <c r="A74" s="4"/>
       <c r="B74" s="39" t="s">
         <v>101</v>
@@ -25560,7 +25690,7 @@
         <v>1.377594</v>
       </c>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:27">
       <c r="A75" s="4"/>
       <c r="B75" s="39" t="s">
         <v>102</v>
@@ -25591,7 +25721,7 @@
         <v>1.3650420000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:27">
       <c r="A76" s="4"/>
       <c r="B76" s="39" t="s">
         <v>103</v>
@@ -25622,7 +25752,7 @@
         <v>1.352724</v>
       </c>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:27">
       <c r="A77" s="38"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -25651,7 +25781,7 @@
         <v>1.340579</v>
       </c>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:27">
       <c r="A78" s="4"/>
       <c r="B78" s="39" t="s">
         <v>104</v>
@@ -25682,7 +25812,7 @@
         <v>1.3289299999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:27">
       <c r="A79" s="4"/>
       <c r="B79" s="39" t="s">
         <v>105</v>
@@ -25713,7 +25843,7 @@
         <v>1.317415</v>
       </c>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:27">
       <c r="A80" s="4"/>
       <c r="B80" s="40" t="s">
         <v>73</v>
@@ -25744,7 +25874,7 @@
         <v>1.306003</v>
       </c>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:27">
       <c r="A81" s="4"/>
       <c r="B81" s="5"/>
       <c r="C81" s="39" t="s">
@@ -25775,7 +25905,7 @@
         <v>1.2946249999999999</v>
       </c>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:27">
       <c r="A82" s="4"/>
       <c r="B82" s="5"/>
       <c r="C82" s="40" t="s">
@@ -25806,7 +25936,7 @@
         <v>1.283622</v>
       </c>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:27">
       <c r="A83" s="4"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -25837,7 +25967,7 @@
         <v>1.272489</v>
       </c>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:27">
       <c r="A84" s="4"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -25868,7 +25998,7 @@
         <v>1.2616000000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:27">
       <c r="A85" s="4"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -25899,7 +26029,7 @@
         <v>1.250936</v>
       </c>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:27">
       <c r="A86" s="4"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -25930,7 +26060,7 @@
         <v>1.240496</v>
       </c>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:27">
       <c r="A87" s="4"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -25961,7 +26091,7 @@
         <v>1.2303090000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:27">
       <c r="A88" s="4"/>
       <c r="B88" s="5"/>
       <c r="C88" s="40" t="s">
@@ -25992,7 +26122,7 @@
         <v>1.2202500000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:27">
       <c r="A89" s="4"/>
       <c r="B89" s="40" t="s">
         <v>96</v>
@@ -26023,7 +26153,7 @@
         <v>1.210283</v>
       </c>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:27">
       <c r="A90" s="4"/>
       <c r="B90" s="40" t="s">
         <v>98</v>
@@ -26054,7 +26184,7 @@
         <v>1.2004999999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:27">
       <c r="A91" s="38"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -26083,7 +26213,7 @@
         <v>1.1908810000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:27">
       <c r="A92" s="4"/>
       <c r="B92" s="39" t="s">
         <v>110</v>
@@ -26114,7 +26244,7 @@
         <v>1.181454</v>
       </c>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:27">
       <c r="A93" s="4"/>
       <c r="B93" s="40" t="s">
         <v>73</v>
@@ -26145,7 +26275,7 @@
         <v>1.172323</v>
       </c>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:27">
       <c r="A94" s="4"/>
       <c r="B94" s="5"/>
       <c r="C94" s="39" t="s">
@@ -26176,7 +26306,7 @@
         <v>1.1634469999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:27">
       <c r="A95" s="4"/>
       <c r="B95" s="5"/>
       <c r="C95" s="40" t="s">
@@ -26207,7 +26337,7 @@
         <v>1.1546449999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:27">
       <c r="A96" s="4"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -26238,7 +26368,7 @@
         <v>1.146026</v>
       </c>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:27">
       <c r="A97" s="4"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -26269,7 +26399,7 @@
         <v>1.137613</v>
       </c>
     </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:27">
       <c r="A98" s="4"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -26300,7 +26430,7 @@
         <v>1.1293850000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:27">
       <c r="A99" s="4"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -26331,7 +26461,7 @@
         <v>1.1213850000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:27">
       <c r="A100" s="4"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -26362,7 +26492,7 @@
         <v>1.1135379999999999</v>
       </c>
     </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:27">
       <c r="A101" s="4"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -26390,7 +26520,7 @@
       <c r="W101" s="5"/>
       <c r="X101" s="6"/>
     </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:27">
       <c r="A102" s="4"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -26418,7 +26548,7 @@
       <c r="W102" s="5"/>
       <c r="X102" s="6"/>
     </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:27">
       <c r="A103" s="4"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -26446,7 +26576,7 @@
       <c r="W103" s="5"/>
       <c r="X103" s="6"/>
     </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:27">
       <c r="A104" s="4"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -26474,7 +26604,7 @@
       <c r="W104" s="5"/>
       <c r="X104" s="6"/>
     </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:27">
       <c r="A105" s="4"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -26502,7 +26632,7 @@
       <c r="W105" s="5"/>
       <c r="X105" s="6"/>
     </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:27">
       <c r="A106" s="4"/>
       <c r="B106" s="5"/>
       <c r="C106" s="40" t="s">
@@ -26530,7 +26660,7 @@
       <c r="W106" s="5"/>
       <c r="X106" s="6"/>
     </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:27">
       <c r="A107" s="4"/>
       <c r="B107" s="5"/>
       <c r="C107" s="40" t="s">
@@ -26558,7 +26688,7 @@
       <c r="W107" s="5"/>
       <c r="X107" s="6"/>
     </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:27">
       <c r="A108" s="38"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -26584,7 +26714,7 @@
       <c r="W108" s="5"/>
       <c r="X108" s="6"/>
     </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:27">
       <c r="A109" s="4"/>
       <c r="B109" s="5"/>
       <c r="C109" s="39" t="s">
@@ -26612,7 +26742,7 @@
       <c r="W109" s="5"/>
       <c r="X109" s="6"/>
     </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:27">
       <c r="A110" s="4"/>
       <c r="B110" s="5"/>
       <c r="C110" s="40" t="s">
@@ -26640,7 +26770,7 @@
       <c r="W110" s="5"/>
       <c r="X110" s="6"/>
     </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:27">
       <c r="A111" s="4"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -26668,7 +26798,7 @@
       <c r="W111" s="5"/>
       <c r="X111" s="6"/>
     </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:27">
       <c r="A112" s="4"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -26696,7 +26826,7 @@
       <c r="W112" s="5"/>
       <c r="X112" s="6"/>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:24">
       <c r="A113" s="4"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -26724,7 +26854,7 @@
       <c r="W113" s="5"/>
       <c r="X113" s="6"/>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:24">
       <c r="A114" s="4"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -26752,7 +26882,7 @@
       <c r="W114" s="5"/>
       <c r="X114" s="6"/>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:24">
       <c r="A115" s="4"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -26780,7 +26910,7 @@
       <c r="W115" s="5"/>
       <c r="X115" s="6"/>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:24">
       <c r="A116" s="4"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -26808,7 +26938,7 @@
       <c r="W116" s="5"/>
       <c r="X116" s="6"/>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:24">
       <c r="A117" s="4"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -26836,7 +26966,7 @@
       <c r="W117" s="5"/>
       <c r="X117" s="6"/>
     </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:24">
       <c r="A118" s="4"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -26864,7 +26994,7 @@
       <c r="W118" s="5"/>
       <c r="X118" s="6"/>
     </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:24">
       <c r="A119" s="4"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -26892,7 +27022,7 @@
       <c r="W119" s="5"/>
       <c r="X119" s="6"/>
     </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:24">
       <c r="A120" s="4"/>
       <c r="B120" s="5"/>
       <c r="C120" s="40" t="s">
@@ -26920,7 +27050,7 @@
       <c r="W120" s="5"/>
       <c r="X120" s="6"/>
     </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:24">
       <c r="A121" s="4"/>
       <c r="B121" s="40" t="s">
         <v>96</v>
@@ -26948,7 +27078,7 @@
       <c r="W121" s="5"/>
       <c r="X121" s="6"/>
     </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:24">
       <c r="A122" s="41" t="s">
         <v>96</v>
       </c>
@@ -26976,7 +27106,7 @@
       <c r="W122" s="8"/>
       <c r="X122" s="9"/>
     </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:24">
       <c r="A125" t="s">
         <v>45</v>
       </c>
@@ -26993,7 +27123,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:24">
       <c r="A126" t="s">
         <v>46</v>
       </c>
@@ -27010,7 +27140,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:24">
       <c r="A127" t="s">
         <v>63</v>
       </c>
@@ -27027,7 +27157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:24">
       <c r="A128" t="s">
         <v>43</v>
       </c>
@@ -27044,13 +27174,13 @@
         <v>122</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:12">
       <c r="F129" s="28"/>
       <c r="H129" s="28"/>
       <c r="J129" s="28"/>
       <c r="L129" s="28"/>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:12">
       <c r="A130" t="s">
         <v>49</v>
       </c>
@@ -27067,7 +27197,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:12">
       <c r="A131" t="s">
         <v>51</v>
       </c>
@@ -27084,7 +27214,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:12">
       <c r="A132" t="s">
         <v>52</v>
       </c>
@@ -27101,13 +27231,13 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:12">
       <c r="F133" s="28"/>
       <c r="H133" s="28"/>
       <c r="J133" s="28"/>
       <c r="L133" s="28"/>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:12">
       <c r="A134" t="s">
         <v>50</v>
       </c>
@@ -27124,7 +27254,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:12">
       <c r="A135" t="s">
         <v>47</v>
       </c>
@@ -27141,7 +27271,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:12">
       <c r="A136" t="s">
         <v>48</v>
       </c>
@@ -27158,82 +27288,82 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:12">
       <c r="A139" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:12">
       <c r="B141" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:12">
       <c r="B142" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:12">
       <c r="B143" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:12">
       <c r="B144" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:16">
       <c r="B145" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:16">
       <c r="B146" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:16">
       <c r="B148" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:16">
       <c r="A151" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:16">
       <c r="B153" s="52" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:16">
       <c r="B154" s="52" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:16">
       <c r="B155" s="52" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:16">
       <c r="B156" s="52" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:16">
       <c r="B157" s="52" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:16">
       <c r="P159" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="161" spans="17:43" x14ac:dyDescent="0.3">
+    <row r="161" spans="17:43">
       <c r="Q161" s="46" t="s">
         <v>123</v>
       </c>
@@ -27316,7 +27446,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="162" spans="17:43" x14ac:dyDescent="0.3">
+    <row r="162" spans="17:43">
       <c r="Q162" s="49" t="s">
         <v>149</v>
       </c>
@@ -27367,33 +27497,33 @@
       <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="13.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26">
       <c r="A2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26">
       <c r="A4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26">
       <c r="A5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26">
       <c r="B7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -27404,7 +27534,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26">
       <c r="C11" t="s">
         <v>5</v>
       </c>
@@ -27420,7 +27550,7 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="3"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26">
       <c r="R12" s="4" t="s">
         <v>21</v>
       </c>
@@ -27433,7 +27563,7 @@
       <c r="Y12" s="5"/>
       <c r="Z12" s="6"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26">
       <c r="D13" s="19"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -27455,7 +27585,7 @@
       <c r="Y13" s="5"/>
       <c r="Z13" s="6"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26">
       <c r="D14" s="21"/>
       <c r="E14" s="22"/>
       <c r="F14" s="22"/>
@@ -27473,7 +27603,7 @@
       <c r="Y14" s="5"/>
       <c r="Z14" s="6"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26">
       <c r="D15" s="14" t="s">
         <v>6</v>
       </c>
@@ -27497,7 +27627,7 @@
       <c r="Y15" s="5"/>
       <c r="Z15" s="6"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26">
       <c r="D16" s="4"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -27515,7 +27645,7 @@
       <c r="Y16" s="5"/>
       <c r="Z16" s="6"/>
     </row>
-    <row r="17" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:29">
       <c r="D17" s="14" t="s">
         <v>7</v>
       </c>
@@ -27539,7 +27669,7 @@
       <c r="Y17" s="5"/>
       <c r="Z17" s="6"/>
     </row>
-    <row r="18" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:29">
       <c r="D18" s="4"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -27557,7 +27687,7 @@
       <c r="Y18" s="5"/>
       <c r="Z18" s="6"/>
     </row>
-    <row r="19" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:29">
       <c r="D19" s="14" t="s">
         <v>8</v>
       </c>
@@ -27581,7 +27711,7 @@
       <c r="Y19" s="5"/>
       <c r="Z19" s="6"/>
     </row>
-    <row r="20" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:29">
       <c r="R20" s="4" t="s">
         <v>29</v>
       </c>
@@ -27594,7 +27724,7 @@
       <c r="Y20" s="5"/>
       <c r="Z20" s="6"/>
     </row>
-    <row r="21" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:29">
       <c r="R21" s="7" t="s">
         <v>30</v>
       </c>
@@ -27607,12 +27737,12 @@
       <c r="Y21" s="8"/>
       <c r="Z21" s="9"/>
     </row>
-    <row r="22" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:29">
       <c r="B22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:29">
       <c r="C24" t="s">
         <v>3</v>
       </c>
@@ -27623,7 +27753,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="2:29" ht="15" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:29">
       <c r="C26" t="s">
         <v>5</v>
       </c>
@@ -27642,7 +27772,7 @@
       <c r="AB26" s="2"/>
       <c r="AC26" s="3"/>
     </row>
-    <row r="27" spans="2:29" ht="15" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:29" ht="15">
       <c r="R27" s="25" t="s">
         <v>38</v>
       </c>
@@ -27658,7 +27788,7 @@
       <c r="AB27" s="5"/>
       <c r="AC27" s="6"/>
     </row>
-    <row r="28" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:29">
       <c r="D28" s="19"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -27683,7 +27813,7 @@
       <c r="AB28" s="5"/>
       <c r="AC28" s="6"/>
     </row>
-    <row r="29" spans="2:29" ht="15" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:29">
       <c r="D29" s="21"/>
       <c r="E29" s="22"/>
       <c r="F29" s="22"/>
@@ -27704,7 +27834,7 @@
       <c r="AB29" s="5"/>
       <c r="AC29" s="6"/>
     </row>
-    <row r="30" spans="2:29" ht="15" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:29">
       <c r="D30" s="14" t="s">
         <v>6</v>
       </c>
@@ -27731,7 +27861,7 @@
       <c r="AB30" s="5"/>
       <c r="AC30" s="6"/>
     </row>
-    <row r="31" spans="2:29" ht="15" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:29">
       <c r="D31" s="4"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
@@ -27752,7 +27882,7 @@
       <c r="AB31" s="5"/>
       <c r="AC31" s="6"/>
     </row>
-    <row r="32" spans="2:29" ht="15" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:29">
       <c r="D32" s="14" t="s">
         <v>7</v>
       </c>
@@ -27779,7 +27909,7 @@
       <c r="AB32" s="5"/>
       <c r="AC32" s="6"/>
     </row>
-    <row r="33" spans="2:29" ht="15" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:29">
       <c r="D33" s="4"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
@@ -27800,7 +27930,7 @@
       <c r="AB33" s="5"/>
       <c r="AC33" s="6"/>
     </row>
-    <row r="34" spans="2:29" ht="15" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:29">
       <c r="D34" s="14" t="s">
         <v>8</v>
       </c>
@@ -27827,7 +27957,7 @@
       <c r="AB34" s="5"/>
       <c r="AC34" s="6"/>
     </row>
-    <row r="35" spans="2:29" ht="15" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:29">
       <c r="R35" s="26" t="s">
         <v>30</v>
       </c>
@@ -27843,7 +27973,7 @@
       <c r="AB35" s="5"/>
       <c r="AC35" s="6"/>
     </row>
-    <row r="36" spans="2:29" ht="15" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:29">
       <c r="R36" s="27" t="s">
         <v>35</v>
       </c>
@@ -27859,17 +27989,17 @@
       <c r="AB36" s="8"/>
       <c r="AC36" s="9"/>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:29">
       <c r="B38" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:29">
       <c r="C40" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:29">
       <c r="C42" t="s">
         <v>42</v>
       </c>
@@ -27889,9 +28019,9 @@
       <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40">
       <c r="AH1">
         <v>1</v>
       </c>
@@ -27911,7 +28041,7 @@
         <v>2.3014190000000001</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:40">
       <c r="A2" t="s">
         <v>161</v>
       </c>
@@ -27934,7 +28064,7 @@
         <v>2.584673</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:40">
       <c r="AH3">
         <v>1</v>
       </c>
@@ -27954,7 +28084,7 @@
         <v>1.93177</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40">
       <c r="B4" t="s">
         <v>162</v>
       </c>
@@ -27977,7 +28107,7 @@
         <v>1.5909629999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40">
       <c r="B5" t="s">
         <v>163</v>
       </c>
@@ -28000,7 +28130,7 @@
         <v>1.341979</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40">
       <c r="AH6">
         <v>1</v>
       </c>
@@ -28020,7 +28150,7 @@
         <v>1.1686399999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:40">
       <c r="A7" t="s">
         <v>159</v>
       </c>
@@ -28043,7 +28173,7 @@
         <v>1.03725</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:40">
       <c r="A8" t="s">
         <v>160</v>
       </c>
@@ -28066,7 +28196,7 @@
         <v>0.95141500000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:40">
       <c r="AH9">
         <v>1</v>
       </c>
@@ -28086,7 +28216,7 @@
         <v>0.89283699999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:40">
       <c r="B10" t="s">
         <v>164</v>
       </c>
@@ -28109,7 +28239,7 @@
         <v>0.84876499999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:40">
       <c r="B11" t="s">
         <v>165</v>
       </c>
@@ -28129,7 +28259,7 @@
         <v>2.0062989999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:40">
       <c r="B12" t="s">
         <v>167</v>
       </c>
@@ -28149,7 +28279,7 @@
         <v>2.026119</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:40">
       <c r="B13" t="s">
         <v>166</v>
       </c>
@@ -28169,7 +28299,7 @@
         <v>1.8752009999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:40">
       <c r="AH14">
         <v>0</v>
       </c>
@@ -28186,7 +28316,7 @@
         <v>1.8121039999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:40">
       <c r="AH15">
         <v>1</v>
       </c>
@@ -28203,7 +28333,7 @@
         <v>1.763612</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:40">
       <c r="AH16">
         <v>0</v>
       </c>
@@ -28220,7 +28350,7 @@
         <v>1.841917</v>
       </c>
     </row>
-    <row r="17" spans="34:39" x14ac:dyDescent="0.3">
+    <row r="17" spans="34:39">
       <c r="AH17">
         <v>1</v>
       </c>
@@ -28237,7 +28367,7 @@
         <v>1.6891860000000001</v>
       </c>
     </row>
-    <row r="18" spans="34:39" x14ac:dyDescent="0.3">
+    <row r="18" spans="34:39">
       <c r="AH18">
         <v>0</v>
       </c>
@@ -28254,7 +28384,7 @@
         <v>1.6865920000000001</v>
       </c>
     </row>
-    <row r="19" spans="34:39" x14ac:dyDescent="0.3">
+    <row r="19" spans="34:39">
       <c r="AH19">
         <v>1</v>
       </c>
@@ -28271,7 +28401,7 @@
         <v>1.588679</v>
       </c>
     </row>
-    <row r="20" spans="34:39" x14ac:dyDescent="0.3">
+    <row r="20" spans="34:39">
       <c r="AH20">
         <v>1</v>
       </c>
@@ -28288,7 +28418,7 @@
         <v>1.560535</v>
       </c>
     </row>
-    <row r="21" spans="34:39" x14ac:dyDescent="0.3">
+    <row r="21" spans="34:39">
       <c r="AH21">
         <v>1</v>
       </c>
@@ -28305,7 +28435,7 @@
         <v>1.503325</v>
       </c>
     </row>
-    <row r="22" spans="34:39" x14ac:dyDescent="0.3">
+    <row r="22" spans="34:39">
       <c r="AH22">
         <v>2</v>
       </c>
@@ -28322,7 +28452,7 @@
         <v>1.4520109999999999</v>
       </c>
     </row>
-    <row r="23" spans="34:39" x14ac:dyDescent="0.3">
+    <row r="23" spans="34:39">
       <c r="AH23">
         <v>1</v>
       </c>
@@ -28339,7 +28469,7 @@
         <v>1.373813</v>
       </c>
     </row>
-    <row r="24" spans="34:39" x14ac:dyDescent="0.3">
+    <row r="24" spans="34:39">
       <c r="AH24">
         <v>1</v>
       </c>
@@ -28356,7 +28486,7 @@
         <v>1.4061330000000001</v>
       </c>
     </row>
-    <row r="25" spans="34:39" x14ac:dyDescent="0.3">
+    <row r="25" spans="34:39">
       <c r="AH25">
         <v>1</v>
       </c>
@@ -28373,7 +28503,7 @@
         <v>1.309569</v>
       </c>
     </row>
-    <row r="26" spans="34:39" x14ac:dyDescent="0.3">
+    <row r="26" spans="34:39">
       <c r="AH26">
         <v>1</v>
       </c>
@@ -28390,7 +28520,7 @@
         <v>1.2696780000000001</v>
       </c>
     </row>
-    <row r="27" spans="34:39" x14ac:dyDescent="0.3">
+    <row r="27" spans="34:39">
       <c r="AH27">
         <v>0</v>
       </c>
@@ -28407,7 +28537,7 @@
         <v>1.3223750000000001</v>
       </c>
     </row>
-    <row r="28" spans="34:39" x14ac:dyDescent="0.3">
+    <row r="28" spans="34:39">
       <c r="AH28">
         <v>1</v>
       </c>
@@ -28424,7 +28554,7 @@
         <v>1.2860400000000001</v>
       </c>
     </row>
-    <row r="29" spans="34:39" x14ac:dyDescent="0.3">
+    <row r="29" spans="34:39">
       <c r="AH29">
         <v>0</v>
       </c>
@@ -28441,7 +28571,7 @@
         <v>1.2214689999999999</v>
       </c>
     </row>
-    <row r="30" spans="34:39" x14ac:dyDescent="0.3">
+    <row r="30" spans="34:39">
       <c r="AH30">
         <v>0</v>
       </c>
@@ -28458,7 +28588,7 @@
         <v>1.2053830000000001</v>
       </c>
     </row>
-    <row r="31" spans="34:39" x14ac:dyDescent="0.3">
+    <row r="31" spans="34:39">
       <c r="AH31">
         <v>1</v>
       </c>
@@ -28472,7 +28602,7 @@
         <v>2.215706</v>
       </c>
     </row>
-    <row r="32" spans="34:39" x14ac:dyDescent="0.3">
+    <row r="32" spans="34:39">
       <c r="AH32">
         <v>2</v>
       </c>
@@ -28486,7 +28616,7 @@
         <v>2.2008679999999998</v>
       </c>
     </row>
-    <row r="33" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:38">
       <c r="AH33">
         <v>0</v>
       </c>
@@ -28500,7 +28630,7 @@
         <v>2.1170230000000001</v>
       </c>
     </row>
-    <row r="34" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:38">
       <c r="F34" t="s">
         <v>168</v>
       </c>
@@ -28520,7 +28650,7 @@
         <v>2.166998</v>
       </c>
     </row>
-    <row r="35" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:38">
       <c r="AH35">
         <v>1</v>
       </c>
@@ -28534,7 +28664,7 @@
         <v>2.1777989999999998</v>
       </c>
     </row>
-    <row r="36" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:38">
       <c r="AH36">
         <v>0</v>
       </c>
@@ -28548,7 +28678,7 @@
         <v>2.1640920000000001</v>
       </c>
     </row>
-    <row r="37" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:38">
       <c r="B37" t="s">
         <v>170</v>
       </c>
@@ -28565,7 +28695,7 @@
         <v>2.1982430000000002</v>
       </c>
     </row>
-    <row r="38" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:38">
       <c r="B38" t="s">
         <v>171</v>
       </c>
@@ -28582,7 +28712,7 @@
         <v>2.1610290000000001</v>
       </c>
     </row>
-    <row r="39" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:38">
       <c r="AH39">
         <v>1</v>
       </c>
@@ -28596,7 +28726,7 @@
         <v>2.125502</v>
       </c>
     </row>
-    <row r="40" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:38">
       <c r="B40" s="56" t="s">
         <v>172</v>
       </c>
@@ -28621,7 +28751,7 @@
         <v>2.0953379999999999</v>
       </c>
     </row>
-    <row r="41" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:38">
       <c r="AH41">
         <v>1</v>
       </c>
@@ -28635,7 +28765,7 @@
         <v>2.0655000000000001</v>
       </c>
     </row>
-    <row r="42" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:38">
       <c r="B42" t="s">
         <v>173</v>
       </c>
@@ -28652,7 +28782,7 @@
         <v>2.051571</v>
       </c>
     </row>
-    <row r="43" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:38">
       <c r="AH43">
         <v>0</v>
       </c>
@@ -28666,7 +28796,7 @@
         <v>2.0553889999999999</v>
       </c>
     </row>
-    <row r="44" spans="2:38" ht="15" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:38" ht="15">
       <c r="B44" s="42" t="s">
         <v>174</v>
       </c>
@@ -28687,7 +28817,7 @@
         <v>2.041353</v>
       </c>
     </row>
-    <row r="45" spans="2:38" ht="15" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:38" ht="15">
       <c r="B45" s="26" t="s">
         <v>175</v>
       </c>
@@ -28708,7 +28838,7 @@
         <v>2.0362230000000001</v>
       </c>
     </row>
-    <row r="46" spans="2:38" ht="15" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:38" ht="15">
       <c r="B46" s="26" t="s">
         <v>176</v>
       </c>
@@ -28729,7 +28859,7 @@
         <v>2.007952</v>
       </c>
     </row>
-    <row r="47" spans="2:38" ht="15" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:38" ht="15">
       <c r="B47" s="26" t="s">
         <v>177</v>
       </c>
@@ -28750,7 +28880,7 @@
         <v>1.992826</v>
       </c>
     </row>
-    <row r="48" spans="2:38" ht="15" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:38" ht="15">
       <c r="B48" s="26" t="s">
         <v>178</v>
       </c>
@@ -28771,7 +28901,7 @@
         <v>1.98586</v>
       </c>
     </row>
-    <row r="49" spans="1:38" ht="15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:38" ht="15">
       <c r="B49" s="26" t="s">
         <v>179</v>
       </c>
@@ -28792,7 +28922,7 @@
         <v>1.9733039999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:38" ht="15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:38" ht="15">
       <c r="B50" s="26" t="s">
         <v>180</v>
       </c>
@@ -28813,7 +28943,7 @@
         <v>1.9610460000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:38" ht="15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:38" ht="15">
       <c r="B51" s="27" t="s">
         <v>181</v>
       </c>
@@ -28834,7 +28964,7 @@
         <v>1.9548160000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:38">
       <c r="AH52">
         <v>1</v>
       </c>
@@ -28848,7 +28978,7 @@
         <v>1.9419249999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:38">
       <c r="AH53">
         <v>0</v>
       </c>
@@ -28862,7 +28992,7 @@
         <v>1.9285239999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:38">
       <c r="AH54">
         <v>0</v>
       </c>
@@ -28876,7 +29006,7 @@
         <v>1.914391</v>
       </c>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:38">
       <c r="AH55">
         <v>1</v>
       </c>
@@ -28890,7 +29020,7 @@
         <v>1.902425</v>
       </c>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:38">
       <c r="AH56">
         <v>1</v>
       </c>
@@ -28904,7 +29034,7 @@
         <v>1.893931</v>
       </c>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:38">
       <c r="AH57">
         <v>1</v>
       </c>
@@ -28918,7 +29048,7 @@
         <v>1.88497</v>
       </c>
     </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:38">
       <c r="AH58">
         <v>0</v>
       </c>
@@ -28932,7 +29062,7 @@
         <v>1.876037</v>
       </c>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:38">
       <c r="AH59">
         <v>1</v>
       </c>
@@ -28946,7 +29076,7 @@
         <v>1.863002</v>
       </c>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:38">
       <c r="AH60">
         <v>1</v>
       </c>
@@ -28960,7 +29090,7 @@
         <v>1.8547750000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:38">
       <c r="A61" t="s">
         <v>45</v>
       </c>
@@ -28989,7 +29119,7 @@
         <v>1.8499049999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:38">
       <c r="A62" t="s">
         <v>46</v>
       </c>
@@ -29018,7 +29148,7 @@
         <v>1.8424339999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:38">
       <c r="A63" t="s">
         <v>63</v>
       </c>
@@ -29047,7 +29177,7 @@
         <v>1.8323400000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:38">
       <c r="A64" t="s">
         <v>43</v>
       </c>
@@ -29076,7 +29206,7 @@
         <v>1.8212870000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:38">
       <c r="F65" s="28"/>
       <c r="H65" s="28"/>
       <c r="J65" s="28"/>
@@ -29094,7 +29224,7 @@
         <v>1.8121989999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:38">
       <c r="A66" t="s">
         <v>49</v>
       </c>
@@ -29123,7 +29253,7 @@
         <v>1.808519</v>
       </c>
     </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:38">
       <c r="A67" t="s">
         <v>51</v>
       </c>
@@ -29152,7 +29282,7 @@
         <v>1.809272</v>
       </c>
     </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:38">
       <c r="A68" t="s">
         <v>52</v>
       </c>
@@ -29181,7 +29311,7 @@
         <v>1.80792</v>
       </c>
     </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:38">
       <c r="F69" s="28"/>
       <c r="H69" s="28"/>
       <c r="J69" s="28"/>
@@ -29199,7 +29329,7 @@
         <v>1.800408</v>
       </c>
     </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:38">
       <c r="A70" t="s">
         <v>50</v>
       </c>
@@ -29228,7 +29358,7 @@
         <v>1.792001</v>
       </c>
     </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:38">
       <c r="A71" t="s">
         <v>47</v>
       </c>
@@ -29257,7 +29387,7 @@
         <v>1.7810820000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:38">
       <c r="A72" t="s">
         <v>48</v>
       </c>
@@ -29286,7 +29416,7 @@
         <v>1.768254</v>
       </c>
     </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:38">
       <c r="AH73">
         <v>1</v>
       </c>
@@ -29300,7 +29430,7 @@
         <v>1.754645</v>
       </c>
     </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:38">
       <c r="AH74">
         <v>1</v>
       </c>
@@ -29314,7 +29444,7 @@
         <v>1.740785</v>
       </c>
     </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:38">
       <c r="A75" t="s">
         <v>118</v>
       </c>
@@ -29331,7 +29461,7 @@
         <v>1.7270220000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:38">
       <c r="AH76">
         <v>1</v>
       </c>
@@ -29345,7 +29475,7 @@
         <v>1.713039</v>
       </c>
     </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:38">
       <c r="B77" t="s">
         <v>186</v>
       </c>
@@ -29362,7 +29492,7 @@
         <v>1.6987509999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:38">
       <c r="B78" t="s">
         <v>187</v>
       </c>
@@ -29379,7 +29509,7 @@
         <v>1.684652</v>
       </c>
     </row>
-    <row r="79" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:38">
       <c r="B79" t="s">
         <v>188</v>
       </c>
@@ -29396,7 +29526,7 @@
         <v>1.67048</v>
       </c>
     </row>
-    <row r="80" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:38">
       <c r="B80" t="s">
         <v>189</v>
       </c>
@@ -29413,7 +29543,7 @@
         <v>1.6565080000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:38">
       <c r="B81" t="s">
         <v>190</v>
       </c>
@@ -29430,7 +29560,7 @@
         <v>1.6429549999999999</v>
       </c>
     </row>
-    <row r="82" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:38">
       <c r="AH82">
         <v>1</v>
       </c>
@@ -29444,7 +29574,7 @@
         <v>1.629704</v>
       </c>
     </row>
-    <row r="83" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:38">
       <c r="AH83">
         <v>0</v>
       </c>
@@ -29458,7 +29588,7 @@
         <v>1.6168359999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:38">
       <c r="A84" t="s">
         <v>156</v>
       </c>
@@ -29475,7 +29605,7 @@
         <v>1.6042700000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:38">
       <c r="AH85">
         <v>1</v>
       </c>
@@ -29489,7 +29619,7 @@
         <v>1.5919490000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:38">
       <c r="B86" s="52" t="s">
         <v>191</v>
       </c>
@@ -29506,7 +29636,7 @@
         <v>1.579955</v>
       </c>
     </row>
-    <row r="87" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:38">
       <c r="B87" s="52" t="s">
         <v>192</v>
       </c>
@@ -29523,7 +29653,7 @@
         <v>1.568195</v>
       </c>
     </row>
-    <row r="88" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:38">
       <c r="B88" s="52" t="s">
         <v>194</v>
       </c>
@@ -29540,7 +29670,7 @@
         <v>1.5566709999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:38">
       <c r="B89" s="52" t="s">
         <v>195</v>
       </c>
@@ -29557,7 +29687,7 @@
         <v>1.54521</v>
       </c>
     </row>
-    <row r="90" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:38">
       <c r="B90" s="52" t="s">
         <v>196</v>
       </c>
@@ -29574,7 +29704,7 @@
         <v>1.5337529999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:38">
       <c r="B91" s="52" t="s">
         <v>197</v>
       </c>
@@ -29591,7 +29721,7 @@
         <v>1.5224009999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:38">
       <c r="AH92">
         <v>1</v>
       </c>
@@ -29605,7 +29735,7 @@
         <v>1.5110380000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:38">
       <c r="AH93">
         <v>0</v>
       </c>
@@ -29619,7 +29749,7 @@
         <v>1.4996529999999999</v>
       </c>
     </row>
-    <row r="94" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:38">
       <c r="AH94">
         <v>1</v>
       </c>
@@ -29633,7 +29763,7 @@
         <v>1.488202</v>
       </c>
     </row>
-    <row r="95" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:38">
       <c r="AH95">
         <v>0</v>
       </c>
@@ -29647,7 +29777,7 @@
         <v>1.4767030000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:38">
       <c r="AH96">
         <v>1</v>
       </c>
@@ -29661,7 +29791,7 @@
         <v>1.4653510000000001</v>
       </c>
     </row>
-    <row r="97" spans="34:38" x14ac:dyDescent="0.3">
+    <row r="97" spans="34:38">
       <c r="AH97">
         <v>1</v>
       </c>
@@ -29675,7 +29805,7 @@
         <v>1.45435</v>
       </c>
     </row>
-    <row r="98" spans="34:38" x14ac:dyDescent="0.3">
+    <row r="98" spans="34:38">
       <c r="AH98">
         <v>1</v>
       </c>
@@ -29689,7 +29819,7 @@
         <v>1.4438569999999999</v>
       </c>
     </row>
-    <row r="99" spans="34:38" x14ac:dyDescent="0.3">
+    <row r="99" spans="34:38">
       <c r="AH99">
         <v>0</v>
       </c>
@@ -29703,7 +29833,7 @@
         <v>1.43418</v>
       </c>
     </row>
-    <row r="100" spans="34:38" x14ac:dyDescent="0.3">
+    <row r="100" spans="34:38">
       <c r="AH100">
         <v>1</v>
       </c>
@@ -29717,7 +29847,7 @@
         <v>1.425859</v>
       </c>
     </row>
-    <row r="101" spans="34:38" x14ac:dyDescent="0.3">
+    <row r="101" spans="34:38">
       <c r="AH101">
         <v>1</v>
       </c>
@@ -29725,7 +29855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="34:38" x14ac:dyDescent="0.3">
+    <row r="102" spans="34:38">
       <c r="AH102">
         <v>1</v>
       </c>
@@ -29733,7 +29863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="34:38" x14ac:dyDescent="0.3">
+    <row r="103" spans="34:38">
       <c r="AH103">
         <v>1</v>
       </c>
@@ -29741,7 +29871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="34:38" x14ac:dyDescent="0.3">
+    <row r="104" spans="34:38">
       <c r="AH104">
         <v>1</v>
       </c>
@@ -29749,7 +29879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="34:38" x14ac:dyDescent="0.3">
+    <row r="105" spans="34:38">
       <c r="AH105">
         <v>1</v>
       </c>
@@ -29757,7 +29887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="34:38" x14ac:dyDescent="0.3">
+    <row r="106" spans="34:38">
       <c r="AH106">
         <v>0</v>
       </c>
@@ -29765,7 +29895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="34:38" x14ac:dyDescent="0.3">
+    <row r="107" spans="34:38">
       <c r="AH107">
         <v>1</v>
       </c>
@@ -29773,7 +29903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="34:38" x14ac:dyDescent="0.3">
+    <row r="108" spans="34:38">
       <c r="AH108">
         <v>1</v>
       </c>
@@ -29781,7 +29911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="34:38" x14ac:dyDescent="0.3">
+    <row r="109" spans="34:38">
       <c r="AH109">
         <v>0</v>
       </c>
@@ -29789,7 +29919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="34:38" x14ac:dyDescent="0.3">
+    <row r="110" spans="34:38">
       <c r="AH110">
         <v>1</v>
       </c>
@@ -29797,7 +29927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="34:38" x14ac:dyDescent="0.3">
+    <row r="111" spans="34:38">
       <c r="AH111">
         <v>1</v>
       </c>
@@ -29805,7 +29935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="34:38" x14ac:dyDescent="0.3">
+    <row r="112" spans="34:38">
       <c r="AH112">
         <v>1</v>
       </c>
@@ -29813,7 +29943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="34:35" x14ac:dyDescent="0.3">
+    <row r="113" spans="34:35">
       <c r="AH113">
         <v>2</v>
       </c>
@@ -29821,7 +29951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="34:35" x14ac:dyDescent="0.3">
+    <row r="114" spans="34:35">
       <c r="AH114">
         <v>0</v>
       </c>
@@ -29829,7 +29959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="34:35" x14ac:dyDescent="0.3">
+    <row r="115" spans="34:35">
       <c r="AH115">
         <v>1</v>
       </c>
@@ -29837,7 +29967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="34:35" x14ac:dyDescent="0.3">
+    <row r="116" spans="34:35">
       <c r="AH116">
         <v>1</v>
       </c>
@@ -29845,7 +29975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="34:35" x14ac:dyDescent="0.3">
+    <row r="117" spans="34:35">
       <c r="AH117">
         <v>0</v>
       </c>
@@ -29853,7 +29983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="34:35" x14ac:dyDescent="0.3">
+    <row r="118" spans="34:35">
       <c r="AH118">
         <v>1</v>
       </c>
@@ -29861,7 +29991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="34:35" x14ac:dyDescent="0.3">
+    <row r="119" spans="34:35">
       <c r="AH119">
         <v>1</v>
       </c>
@@ -29869,7 +29999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="34:35" x14ac:dyDescent="0.3">
+    <row r="120" spans="34:35">
       <c r="AH120">
         <v>1</v>
       </c>
@@ -29877,7 +30007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="34:35" x14ac:dyDescent="0.3">
+    <row r="121" spans="34:35">
       <c r="AH121">
         <v>1</v>
       </c>
@@ -29885,7 +30015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="34:35" x14ac:dyDescent="0.3">
+    <row r="122" spans="34:35">
       <c r="AH122">
         <v>1</v>
       </c>
@@ -29893,7 +30023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="34:35" x14ac:dyDescent="0.3">
+    <row r="123" spans="34:35">
       <c r="AH123">
         <v>1</v>
       </c>
@@ -29901,7 +30031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="34:35" x14ac:dyDescent="0.3">
+    <row r="124" spans="34:35">
       <c r="AH124">
         <v>0</v>
       </c>
@@ -29909,7 +30039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="34:35" x14ac:dyDescent="0.3">
+    <row r="125" spans="34:35">
       <c r="AH125">
         <v>1</v>
       </c>
@@ -29917,7 +30047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="34:35" x14ac:dyDescent="0.3">
+    <row r="126" spans="34:35">
       <c r="AH126">
         <v>0</v>
       </c>
@@ -29925,7 +30055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="34:35" x14ac:dyDescent="0.3">
+    <row r="127" spans="34:35">
       <c r="AH127">
         <v>0</v>
       </c>
@@ -29933,7 +30063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="34:35" x14ac:dyDescent="0.3">
+    <row r="128" spans="34:35">
       <c r="AH128">
         <v>1</v>
       </c>
@@ -29941,7 +30071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="34:35" x14ac:dyDescent="0.3">
+    <row r="129" spans="34:35">
       <c r="AH129">
         <v>1</v>
       </c>
@@ -29949,7 +30079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="34:35" x14ac:dyDescent="0.3">
+    <row r="130" spans="34:35">
       <c r="AH130">
         <v>1</v>
       </c>
@@ -29957,7 +30087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="34:35" x14ac:dyDescent="0.3">
+    <row r="131" spans="34:35">
       <c r="AH131">
         <v>1</v>
       </c>
@@ -29965,7 +30095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="34:35" x14ac:dyDescent="0.3">
+    <row r="132" spans="34:35">
       <c r="AH132">
         <v>0</v>
       </c>
@@ -29973,7 +30103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="34:35" x14ac:dyDescent="0.3">
+    <row r="133" spans="34:35">
       <c r="AH133">
         <v>1</v>
       </c>
@@ -29981,7 +30111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="34:35" x14ac:dyDescent="0.3">
+    <row r="134" spans="34:35">
       <c r="AH134">
         <v>6</v>
       </c>
@@ -29989,7 +30119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="34:35" x14ac:dyDescent="0.3">
+    <row r="135" spans="34:35">
       <c r="AH135">
         <v>1</v>
       </c>
@@ -29997,7 +30127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="34:35" x14ac:dyDescent="0.3">
+    <row r="136" spans="34:35">
       <c r="AH136">
         <v>1</v>
       </c>
@@ -30005,7 +30135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="34:35" x14ac:dyDescent="0.3">
+    <row r="137" spans="34:35">
       <c r="AH137">
         <v>1</v>
       </c>
@@ -30013,7 +30143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="34:35" x14ac:dyDescent="0.3">
+    <row r="138" spans="34:35">
       <c r="AH138">
         <v>1</v>
       </c>
@@ -30021,7 +30151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="34:35" x14ac:dyDescent="0.3">
+    <row r="139" spans="34:35">
       <c r="AH139">
         <v>1</v>
       </c>
@@ -30029,7 +30159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="34:35" x14ac:dyDescent="0.3">
+    <row r="140" spans="34:35">
       <c r="AH140">
         <v>0</v>
       </c>
@@ -30037,7 +30167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="34:35" x14ac:dyDescent="0.3">
+    <row r="141" spans="34:35">
       <c r="AH141">
         <v>1</v>
       </c>
@@ -30045,7 +30175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="34:35" x14ac:dyDescent="0.3">
+    <row r="142" spans="34:35">
       <c r="AH142">
         <v>1</v>
       </c>
@@ -30053,7 +30183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="34:35" x14ac:dyDescent="0.3">
+    <row r="143" spans="34:35">
       <c r="AH143">
         <v>1</v>
       </c>
@@ -30061,7 +30191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="34:35" x14ac:dyDescent="0.3">
+    <row r="144" spans="34:35">
       <c r="AH144">
         <v>0</v>
       </c>
@@ -30069,7 +30199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="34:35" x14ac:dyDescent="0.3">
+    <row r="145" spans="34:35">
       <c r="AH145">
         <v>0</v>
       </c>
@@ -30077,7 +30207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="34:35" x14ac:dyDescent="0.3">
+    <row r="146" spans="34:35">
       <c r="AH146">
         <v>1</v>
       </c>
@@ -30085,7 +30215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="34:35" x14ac:dyDescent="0.3">
+    <row r="147" spans="34:35">
       <c r="AH147">
         <v>1</v>
       </c>
@@ -30093,7 +30223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="34:35" x14ac:dyDescent="0.3">
+    <row r="148" spans="34:35">
       <c r="AH148">
         <v>0</v>
       </c>
@@ -30101,7 +30231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="34:35" x14ac:dyDescent="0.3">
+    <row r="149" spans="34:35">
       <c r="AH149">
         <v>1</v>
       </c>
@@ -30109,7 +30239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="34:35" x14ac:dyDescent="0.3">
+    <row r="150" spans="34:35">
       <c r="AH150">
         <v>1</v>
       </c>
@@ -30117,7 +30247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="34:35" x14ac:dyDescent="0.3">
+    <row r="151" spans="34:35">
       <c r="AH151">
         <v>0</v>
       </c>
@@ -30125,7 +30255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="34:35" x14ac:dyDescent="0.3">
+    <row r="152" spans="34:35">
       <c r="AH152">
         <v>0</v>
       </c>
@@ -30133,7 +30263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="34:35" x14ac:dyDescent="0.3">
+    <row r="153" spans="34:35">
       <c r="AH153">
         <v>0</v>
       </c>
@@ -30141,7 +30271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="34:35" x14ac:dyDescent="0.3">
+    <row r="154" spans="34:35">
       <c r="AH154">
         <v>0</v>
       </c>
@@ -30149,7 +30279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="34:35" x14ac:dyDescent="0.3">
+    <row r="155" spans="34:35">
       <c r="AH155">
         <v>0</v>
       </c>
@@ -30157,7 +30287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="34:35" x14ac:dyDescent="0.3">
+    <row r="156" spans="34:35">
       <c r="AH156">
         <v>1</v>
       </c>
@@ -30165,7 +30295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="34:35" x14ac:dyDescent="0.3">
+    <row r="157" spans="34:35">
       <c r="AH157">
         <v>1</v>
       </c>
@@ -30173,7 +30303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="34:35" x14ac:dyDescent="0.3">
+    <row r="158" spans="34:35">
       <c r="AH158">
         <v>0</v>
       </c>
@@ -30181,7 +30311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="34:35" x14ac:dyDescent="0.3">
+    <row r="159" spans="34:35">
       <c r="AH159">
         <v>0</v>
       </c>
@@ -30189,7 +30319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="34:35" x14ac:dyDescent="0.3">
+    <row r="160" spans="34:35">
       <c r="AH160">
         <v>1</v>
       </c>
@@ -30197,7 +30327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="34:35" x14ac:dyDescent="0.3">
+    <row r="161" spans="34:35">
       <c r="AH161">
         <v>0</v>
       </c>
@@ -30205,7 +30335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="34:35" x14ac:dyDescent="0.3">
+    <row r="162" spans="34:35">
       <c r="AH162">
         <v>1</v>
       </c>
@@ -30213,7 +30343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="34:35" x14ac:dyDescent="0.3">
+    <row r="163" spans="34:35">
       <c r="AH163">
         <v>2</v>
       </c>
@@ -30221,7 +30351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="34:35" x14ac:dyDescent="0.3">
+    <row r="164" spans="34:35">
       <c r="AH164">
         <v>1</v>
       </c>
@@ -30229,7 +30359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="34:35" x14ac:dyDescent="0.3">
+    <row r="165" spans="34:35">
       <c r="AH165">
         <v>1</v>
       </c>
@@ -30237,7 +30367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="34:35" x14ac:dyDescent="0.3">
+    <row r="166" spans="34:35">
       <c r="AH166">
         <v>0</v>
       </c>
@@ -30245,7 +30375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="34:35" x14ac:dyDescent="0.3">
+    <row r="167" spans="34:35">
       <c r="AH167">
         <v>1</v>
       </c>
@@ -30253,7 +30383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="34:35" x14ac:dyDescent="0.3">
+    <row r="168" spans="34:35">
       <c r="AH168">
         <v>1</v>
       </c>
@@ -30261,7 +30391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="34:35" x14ac:dyDescent="0.3">
+    <row r="169" spans="34:35">
       <c r="AH169">
         <v>1</v>
       </c>
@@ -30269,7 +30399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="34:35" x14ac:dyDescent="0.3">
+    <row r="170" spans="34:35">
       <c r="AH170">
         <v>0</v>
       </c>
@@ -30277,7 +30407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="34:35" x14ac:dyDescent="0.3">
+    <row r="171" spans="34:35">
       <c r="AH171">
         <v>1</v>
       </c>
@@ -30285,7 +30415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="34:35" x14ac:dyDescent="0.3">
+    <row r="172" spans="34:35">
       <c r="AH172">
         <v>0</v>
       </c>
@@ -30293,7 +30423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="34:35" x14ac:dyDescent="0.3">
+    <row r="173" spans="34:35">
       <c r="AH173">
         <v>1</v>
       </c>
@@ -30301,7 +30431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="34:35" x14ac:dyDescent="0.3">
+    <row r="174" spans="34:35">
       <c r="AH174">
         <v>1</v>
       </c>
@@ -30309,7 +30439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="34:35" x14ac:dyDescent="0.3">
+    <row r="175" spans="34:35">
       <c r="AH175">
         <v>1</v>
       </c>
@@ -30317,7 +30447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="34:35" x14ac:dyDescent="0.3">
+    <row r="176" spans="34:35">
       <c r="AH176">
         <v>2</v>
       </c>
@@ -30325,7 +30455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="34:35" x14ac:dyDescent="0.3">
+    <row r="177" spans="34:35">
       <c r="AH177">
         <v>0</v>
       </c>
@@ -30333,7 +30463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="34:35" x14ac:dyDescent="0.3">
+    <row r="178" spans="34:35">
       <c r="AH178">
         <v>1</v>
       </c>
@@ -30341,7 +30471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="34:35" x14ac:dyDescent="0.3">
+    <row r="179" spans="34:35">
       <c r="AH179">
         <v>1</v>
       </c>
@@ -30349,7 +30479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="34:35" x14ac:dyDescent="0.3">
+    <row r="180" spans="34:35">
       <c r="AH180">
         <v>1</v>
       </c>
@@ -30357,7 +30487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="34:35" x14ac:dyDescent="0.3">
+    <row r="181" spans="34:35">
       <c r="AH181">
         <v>0</v>
       </c>
@@ -30365,7 +30495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="34:35" x14ac:dyDescent="0.3">
+    <row r="182" spans="34:35">
       <c r="AH182">
         <v>2</v>
       </c>
@@ -30373,7 +30503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="34:35" x14ac:dyDescent="0.3">
+    <row r="183" spans="34:35">
       <c r="AH183">
         <v>1</v>
       </c>
@@ -30381,7 +30511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="34:35" x14ac:dyDescent="0.3">
+    <row r="184" spans="34:35">
       <c r="AH184">
         <v>1</v>
       </c>
@@ -30389,7 +30519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="34:35" x14ac:dyDescent="0.3">
+    <row r="185" spans="34:35">
       <c r="AH185">
         <v>1</v>
       </c>
@@ -30397,7 +30527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="34:35" x14ac:dyDescent="0.3">
+    <row r="186" spans="34:35">
       <c r="AH186">
         <v>1</v>
       </c>
@@ -30405,7 +30535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="34:35" x14ac:dyDescent="0.3">
+    <row r="187" spans="34:35">
       <c r="AH187">
         <v>1</v>
       </c>
@@ -30413,7 +30543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="34:35" x14ac:dyDescent="0.3">
+    <row r="188" spans="34:35">
       <c r="AH188">
         <v>0</v>
       </c>
@@ -30421,7 +30551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="34:35" x14ac:dyDescent="0.3">
+    <row r="189" spans="34:35">
       <c r="AH189">
         <v>1</v>
       </c>
@@ -30429,7 +30559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="34:35" x14ac:dyDescent="0.3">
+    <row r="190" spans="34:35">
       <c r="AH190">
         <v>0</v>
       </c>
@@ -30437,7 +30567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="34:35" x14ac:dyDescent="0.3">
+    <row r="191" spans="34:35">
       <c r="AH191">
         <v>1</v>
       </c>
@@ -30445,7 +30575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="34:35" x14ac:dyDescent="0.3">
+    <row r="192" spans="34:35">
       <c r="AH192">
         <v>0</v>
       </c>
@@ -30453,7 +30583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="34:35" x14ac:dyDescent="0.3">
+    <row r="193" spans="34:35">
       <c r="AH193">
         <v>1</v>
       </c>
@@ -30461,7 +30591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="34:35" x14ac:dyDescent="0.3">
+    <row r="194" spans="34:35">
       <c r="AH194">
         <v>1</v>
       </c>
@@ -30469,7 +30599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="34:35" x14ac:dyDescent="0.3">
+    <row r="195" spans="34:35">
       <c r="AH195">
         <v>0</v>
       </c>
@@ -30477,7 +30607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="34:35" x14ac:dyDescent="0.3">
+    <row r="196" spans="34:35">
       <c r="AH196">
         <v>1</v>
       </c>
@@ -30485,7 +30615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="34:35" x14ac:dyDescent="0.3">
+    <row r="197" spans="34:35">
       <c r="AH197">
         <v>1</v>
       </c>
@@ -30493,7 +30623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="34:35" x14ac:dyDescent="0.3">
+    <row r="198" spans="34:35">
       <c r="AH198">
         <v>1</v>
       </c>
@@ -30501,7 +30631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="34:35" x14ac:dyDescent="0.3">
+    <row r="199" spans="34:35">
       <c r="AH199">
         <v>0</v>
       </c>
@@ -30509,7 +30639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="34:35" x14ac:dyDescent="0.3">
+    <row r="200" spans="34:35">
       <c r="AH200">
         <v>0</v>
       </c>
@@ -30517,7 +30647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="34:35" x14ac:dyDescent="0.3">
+    <row r="201" spans="34:35">
       <c r="AH201">
         <v>1</v>
       </c>
@@ -30525,7 +30655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="34:35" x14ac:dyDescent="0.3">
+    <row r="202" spans="34:35">
       <c r="AH202">
         <v>1</v>
       </c>
@@ -30533,7 +30663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="34:35" x14ac:dyDescent="0.3">
+    <row r="203" spans="34:35">
       <c r="AH203">
         <v>0</v>
       </c>
@@ -30541,7 +30671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="34:35" x14ac:dyDescent="0.3">
+    <row r="204" spans="34:35">
       <c r="AH204">
         <v>1</v>
       </c>
@@ -30549,7 +30679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="34:35" x14ac:dyDescent="0.3">
+    <row r="205" spans="34:35">
       <c r="AH205">
         <v>1</v>
       </c>
@@ -30568,13 +30698,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN100"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
+    <sheetView topLeftCell="A59" workbookViewId="0">
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40">
       <c r="AK1">
         <v>2.3243260000000001</v>
       </c>
@@ -30588,7 +30718,7 @@
         <v>0.327515</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:40">
       <c r="A2" t="s">
         <v>198</v>
       </c>
@@ -30605,7 +30735,7 @@
         <v>0.31698799999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:40">
       <c r="A3" t="s">
         <v>200</v>
       </c>
@@ -30622,7 +30752,7 @@
         <v>0.29696899999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40">
       <c r="AK4">
         <v>2.2658010000000002</v>
       </c>
@@ -30636,7 +30766,7 @@
         <v>0.30426900000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40">
       <c r="B5" t="s">
         <v>199</v>
       </c>
@@ -30653,7 +30783,7 @@
         <v>0.30245899999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40">
       <c r="AK6">
         <v>2.2636750000000001</v>
       </c>
@@ -30667,7 +30797,7 @@
         <v>2.3034659999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:40">
       <c r="AK7">
         <v>2.2630629999999998</v>
       </c>
@@ -30681,7 +30811,7 @@
         <v>1.811501</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:40">
       <c r="AK8">
         <v>2.2625660000000001</v>
       </c>
@@ -30695,7 +30825,7 @@
         <v>0.39893000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:40">
       <c r="B9" t="s">
         <v>232</v>
       </c>
@@ -30712,7 +30842,7 @@
         <v>0.32472099999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:40">
       <c r="AK10">
         <v>2.2617180000000001</v>
       </c>
@@ -30726,7 +30856,7 @@
         <v>0.33598099999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:40">
       <c r="AK11">
         <v>2.2613210000000001</v>
       </c>
@@ -30737,7 +30867,7 @@
         <v>0.40256199999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:40">
       <c r="A12" t="s">
         <v>233</v>
       </c>
@@ -30751,7 +30881,7 @@
         <v>0.39400600000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:40">
       <c r="AK13">
         <v>2.2605059999999999</v>
       </c>
@@ -30762,7 +30892,7 @@
         <v>0.38496999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:40">
       <c r="B14" t="s">
         <v>201</v>
       </c>
@@ -30776,7 +30906,7 @@
         <v>0.36663299999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:40">
       <c r="AK15">
         <v>2.2595869999999998</v>
       </c>
@@ -30787,7 +30917,7 @@
         <v>0.30988700000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:40">
       <c r="C16" t="s">
         <v>202</v>
       </c>
@@ -30801,7 +30931,7 @@
         <v>0.26835500000000001</v>
       </c>
     </row>
-    <row r="17" spans="2:39" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:39">
       <c r="AK17">
         <v>2.2584569999999999</v>
       </c>
@@ -30812,7 +30942,7 @@
         <v>0.25444800000000001</v>
       </c>
     </row>
-    <row r="18" spans="2:39" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:39">
       <c r="B18" t="s">
         <v>203</v>
       </c>
@@ -30826,7 +30956,7 @@
         <v>0.26018599999999997</v>
       </c>
     </row>
-    <row r="19" spans="2:39" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:39">
       <c r="B19" t="s">
         <v>204</v>
       </c>
@@ -30840,7 +30970,7 @@
         <v>0.26838200000000001</v>
       </c>
     </row>
-    <row r="20" spans="2:39" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:39">
       <c r="B20" t="s">
         <v>205</v>
       </c>
@@ -30854,7 +30984,7 @@
         <v>0.26257200000000003</v>
       </c>
     </row>
-    <row r="21" spans="2:39" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:39">
       <c r="AK21">
         <v>2.254769</v>
       </c>
@@ -30865,7 +30995,7 @@
         <v>0.25084299999999998</v>
       </c>
     </row>
-    <row r="22" spans="2:39" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:39">
       <c r="AK22">
         <v>2.253228</v>
       </c>
@@ -30876,7 +31006,7 @@
         <v>0.246423</v>
       </c>
     </row>
-    <row r="23" spans="2:39" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:39">
       <c r="AK23">
         <v>2.2511830000000002</v>
       </c>
@@ -30887,7 +31017,7 @@
         <v>0.24416499999999999</v>
       </c>
     </row>
-    <row r="24" spans="2:39" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:39">
       <c r="AK24">
         <v>2.2483409999999999</v>
       </c>
@@ -30898,7 +31028,7 @@
         <v>0.24052999999999999</v>
       </c>
     </row>
-    <row r="25" spans="2:39" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:39">
       <c r="AK25">
         <v>2.2441369999999998</v>
       </c>
@@ -30909,7 +31039,7 @@
         <v>0.23677100000000001</v>
       </c>
     </row>
-    <row r="26" spans="2:39" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:39">
       <c r="AK26">
         <v>2.2373810000000001</v>
       </c>
@@ -30920,7 +31050,7 @@
         <v>0.23245299999999999</v>
       </c>
     </row>
-    <row r="27" spans="2:39" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:39">
       <c r="AK27">
         <v>2.2253189999999998</v>
       </c>
@@ -30931,7 +31061,7 @@
         <v>0.226858</v>
       </c>
     </row>
-    <row r="28" spans="2:39" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:39">
       <c r="AK28">
         <v>2.2008580000000002</v>
       </c>
@@ -30942,7 +31072,7 @@
         <v>0.222242</v>
       </c>
     </row>
-    <row r="29" spans="2:39" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:39">
       <c r="AK29">
         <v>2.1441400000000002</v>
       </c>
@@ -30953,7 +31083,7 @@
         <v>0.218803</v>
       </c>
     </row>
-    <row r="30" spans="2:39" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:39">
       <c r="AK30">
         <v>2.0171790000000001</v>
       </c>
@@ -30964,7 +31094,7 @@
         <v>0.21484400000000001</v>
       </c>
     </row>
-    <row r="31" spans="2:39" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:39">
       <c r="AK31">
         <v>1.8348059999999999</v>
       </c>
@@ -30972,7 +31102,7 @@
         <v>0.161383</v>
       </c>
     </row>
-    <row r="32" spans="2:39" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:39">
       <c r="AK32">
         <v>1.651389</v>
       </c>
@@ -30980,7 +31110,7 @@
         <v>0.15438299999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:38">
       <c r="AK33">
         <v>1.426264</v>
       </c>
@@ -30988,7 +31118,7 @@
         <v>0.147869</v>
       </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:38">
       <c r="AK34">
         <v>1.1897260000000001</v>
       </c>
@@ -30996,7 +31126,7 @@
         <v>0.141986</v>
       </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:38">
       <c r="AK35">
         <v>0.99980800000000003</v>
       </c>
@@ -31004,7 +31134,7 @@
         <v>0.136018</v>
       </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:38">
       <c r="AK36">
         <v>0.8609</v>
       </c>
@@ -31012,7 +31142,7 @@
         <v>0.13017000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:38">
       <c r="AK37">
         <v>0.75673299999999999</v>
       </c>
@@ -31020,7 +31150,7 @@
         <v>0.12503500000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:38">
       <c r="AK38">
         <v>0.67551700000000003</v>
       </c>
@@ -31028,7 +31158,7 @@
         <v>0.12016</v>
       </c>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:38">
       <c r="AK39">
         <v>0.61150099999999996</v>
       </c>
@@ -31036,7 +31166,7 @@
         <v>0.116115</v>
       </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:38">
       <c r="AK40">
         <v>0.55666800000000005</v>
       </c>
@@ -31044,7 +31174,7 @@
         <v>0.112553</v>
       </c>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:38">
       <c r="AK41">
         <v>0.50676299999999996</v>
       </c>
@@ -31052,7 +31182,7 @@
         <v>0.109296</v>
       </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:38">
       <c r="AK42">
         <v>0.46110000000000001</v>
       </c>
@@ -31060,7 +31190,7 @@
         <v>0.106366</v>
       </c>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:38">
       <c r="AK43">
         <v>0.419678</v>
       </c>
@@ -31068,7 +31198,7 @@
         <v>0.10372099999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:38">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -31091,7 +31221,7 @@
         <v>0.101148</v>
       </c>
     </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:38">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -31114,7 +31244,7 @@
         <v>9.8665000000000003E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:38">
       <c r="A46" t="s">
         <v>63</v>
       </c>
@@ -31137,7 +31267,7 @@
         <v>9.6354999999999996E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:38">
       <c r="A47" t="s">
         <v>43</v>
       </c>
@@ -31160,7 +31290,7 @@
         <v>9.4238000000000002E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:38">
       <c r="F48" s="28"/>
       <c r="H48" s="28"/>
       <c r="J48" s="28"/>
@@ -31172,7 +31302,7 @@
         <v>9.2299999999999993E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:38">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -31195,7 +31325,7 @@
         <v>9.0620999999999993E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:38">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -31218,7 +31348,7 @@
         <v>8.9205000000000007E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:38">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -31241,7 +31371,7 @@
         <v>8.7889999999999996E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:38">
       <c r="F52" s="28"/>
       <c r="H52" s="28"/>
       <c r="J52" s="28"/>
@@ -31253,7 +31383,7 @@
         <v>8.6670999999999998E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:38">
       <c r="A53" t="s">
         <v>50</v>
       </c>
@@ -31276,7 +31406,7 @@
         <v>8.5557999999999995E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:38">
       <c r="A54" t="s">
         <v>47</v>
       </c>
@@ -31299,7 +31429,7 @@
         <v>8.4548999999999999E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:38">
       <c r="A55" t="s">
         <v>48</v>
       </c>
@@ -31322,7 +31452,7 @@
         <v>8.3672999999999997E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:38">
       <c r="AK56">
         <v>0.109399</v>
       </c>
@@ -31330,7 +31460,7 @@
         <v>8.2891999999999993E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:38">
       <c r="AK57">
         <v>0.10295899999999999</v>
       </c>
@@ -31338,7 +31468,7 @@
         <v>8.2224000000000005E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:38">
       <c r="A58" t="s">
         <v>118</v>
       </c>
@@ -31349,7 +31479,7 @@
         <v>8.1691E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:38">
       <c r="AK59">
         <v>9.1059000000000001E-2</v>
       </c>
@@ -31357,7 +31487,7 @@
         <v>8.1208000000000002E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:38">
       <c r="B60" t="s">
         <v>234</v>
       </c>
@@ -31368,7 +31498,7 @@
         <v>8.0784999999999996E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:38">
       <c r="B61" t="s">
         <v>235</v>
       </c>
@@ -31379,7 +31509,7 @@
         <v>8.0450999999999995E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:38">
       <c r="B62" t="s">
         <v>236</v>
       </c>
@@ -31390,7 +31520,7 @@
         <v>8.0149999999999999E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:38">
       <c r="B63" t="s">
         <v>237</v>
       </c>
@@ -31401,7 +31531,7 @@
         <v>7.9887E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:38">
       <c r="B64" t="s">
         <v>209</v>
       </c>
@@ -31412,7 +31542,7 @@
         <v>7.9579999999999998E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:38">
       <c r="B65" t="s">
         <v>210</v>
       </c>
@@ -31423,7 +31553,7 @@
         <v>7.9460000000000003E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:38">
       <c r="AK66">
         <v>6.4179E-2</v>
       </c>
@@ -31431,7 +31561,7 @@
         <v>7.9297999999999993E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:38">
       <c r="A67" t="s">
         <v>156</v>
       </c>
@@ -31442,7 +31572,7 @@
         <v>7.9140000000000002E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:38">
       <c r="AK68">
         <v>5.9247000000000001E-2</v>
       </c>
@@ -31450,7 +31580,7 @@
         <v>7.9020000000000007E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:38">
       <c r="B69" s="52" t="s">
         <v>211</v>
       </c>
@@ -31461,7 +31591,7 @@
         <v>7.8956999999999999E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:38">
       <c r="B70" s="52" t="s">
         <v>212</v>
       </c>
@@ -31472,7 +31602,7 @@
         <v>7.8811000000000006E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:38">
       <c r="B71" s="52"/>
       <c r="AK71">
         <v>5.2974E-2</v>
@@ -31481,7 +31611,7 @@
         <v>7.8782000000000005E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:38">
       <c r="AK72">
         <v>5.1115000000000001E-2</v>
       </c>
@@ -31489,7 +31619,7 @@
         <v>7.8774999999999998E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:38">
       <c r="AK73">
         <v>4.9360000000000001E-2</v>
       </c>
@@ -31497,7 +31627,7 @@
         <v>7.8791E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:38">
       <c r="B74" s="52"/>
       <c r="AK74">
         <v>4.7710000000000002E-2</v>
@@ -31506,7 +31636,7 @@
         <v>7.8864000000000004E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:38">
       <c r="AK75">
         <v>4.6165999999999999E-2</v>
       </c>
@@ -31514,7 +31644,7 @@
         <v>7.8932000000000002E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:38">
       <c r="AK76">
         <v>4.4720999999999997E-2</v>
       </c>
@@ -31522,7 +31652,7 @@
         <v>7.8949000000000005E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:38">
       <c r="AK77">
         <v>4.3387000000000002E-2</v>
       </c>
@@ -31530,7 +31660,7 @@
         <v>7.9047000000000006E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:38">
       <c r="AK78">
         <v>4.2162999999999999E-2</v>
       </c>
@@ -31538,7 +31668,7 @@
         <v>7.9201999999999995E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:38">
       <c r="AK79">
         <v>4.1041000000000001E-2</v>
       </c>
@@ -31546,7 +31676,7 @@
         <v>7.8952999999999995E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:38">
       <c r="AK80">
         <v>4.0023000000000003E-2</v>
       </c>
@@ -31554,7 +31684,7 @@
         <v>7.9534999999999995E-2</v>
       </c>
     </row>
-    <row r="81" spans="37:38" x14ac:dyDescent="0.3">
+    <row r="81" spans="37:38">
       <c r="AK81">
         <v>3.9102999999999999E-2</v>
       </c>
@@ -31562,7 +31692,7 @@
         <v>7.9703999999999997E-2</v>
       </c>
     </row>
-    <row r="82" spans="37:38" x14ac:dyDescent="0.3">
+    <row r="82" spans="37:38">
       <c r="AK82">
         <v>3.8272E-2</v>
       </c>
@@ -31570,7 +31700,7 @@
         <v>7.9762E-2</v>
       </c>
     </row>
-    <row r="83" spans="37:38" x14ac:dyDescent="0.3">
+    <row r="83" spans="37:38">
       <c r="AK83">
         <v>3.7527999999999999E-2</v>
       </c>
@@ -31578,7 +31708,7 @@
         <v>7.9949999999999993E-2</v>
       </c>
     </row>
-    <row r="84" spans="37:38" x14ac:dyDescent="0.3">
+    <row r="84" spans="37:38">
       <c r="AK84">
         <v>3.6861999999999999E-2</v>
       </c>
@@ -31586,7 +31716,7 @@
         <v>8.0084000000000002E-2</v>
       </c>
     </row>
-    <row r="85" spans="37:38" x14ac:dyDescent="0.3">
+    <row r="85" spans="37:38">
       <c r="AK85">
         <v>3.6267000000000001E-2</v>
       </c>
@@ -31594,7 +31724,7 @@
         <v>8.022E-2</v>
       </c>
     </row>
-    <row r="86" spans="37:38" x14ac:dyDescent="0.3">
+    <row r="86" spans="37:38">
       <c r="AK86">
         <v>3.5737999999999999E-2</v>
       </c>
@@ -31602,7 +31732,7 @@
         <v>8.0347000000000002E-2</v>
       </c>
     </row>
-    <row r="87" spans="37:38" x14ac:dyDescent="0.3">
+    <row r="87" spans="37:38">
       <c r="AK87">
         <v>3.5267E-2</v>
       </c>
@@ -31610,7 +31740,7 @@
         <v>8.0399999999999999E-2</v>
       </c>
     </row>
-    <row r="88" spans="37:38" x14ac:dyDescent="0.3">
+    <row r="88" spans="37:38">
       <c r="AK88">
         <v>3.4846000000000002E-2</v>
       </c>
@@ -31618,7 +31748,7 @@
         <v>8.0505999999999994E-2</v>
       </c>
     </row>
-    <row r="89" spans="37:38" x14ac:dyDescent="0.3">
+    <row r="89" spans="37:38">
       <c r="AK89">
         <v>3.4470000000000001E-2</v>
       </c>
@@ -31626,7 +31756,7 @@
         <v>8.0620999999999998E-2</v>
       </c>
     </row>
-    <row r="90" spans="37:38" x14ac:dyDescent="0.3">
+    <row r="90" spans="37:38">
       <c r="AK90">
         <v>3.4133999999999998E-2</v>
       </c>
@@ -31634,7 +31764,7 @@
         <v>8.0726999999999993E-2</v>
       </c>
     </row>
-    <row r="91" spans="37:38" x14ac:dyDescent="0.3">
+    <row r="91" spans="37:38">
       <c r="AK91">
         <v>3.3831E-2</v>
       </c>
@@ -31642,7 +31772,7 @@
         <v>8.0823999999999993E-2</v>
       </c>
     </row>
-    <row r="92" spans="37:38" x14ac:dyDescent="0.3">
+    <row r="92" spans="37:38">
       <c r="AK92">
         <v>3.3558999999999999E-2</v>
       </c>
@@ -31650,7 +31780,7 @@
         <v>8.0958000000000002E-2</v>
       </c>
     </row>
-    <row r="93" spans="37:38" x14ac:dyDescent="0.3">
+    <row r="93" spans="37:38">
       <c r="AK93">
         <v>3.3314000000000003E-2</v>
       </c>
@@ -31658,7 +31788,7 @@
         <v>8.1151000000000001E-2</v>
       </c>
     </row>
-    <row r="94" spans="37:38" x14ac:dyDescent="0.3">
+    <row r="94" spans="37:38">
       <c r="AK94">
         <v>3.3092000000000003E-2</v>
       </c>
@@ -31666,7 +31796,7 @@
         <v>8.1201999999999996E-2</v>
       </c>
     </row>
-    <row r="95" spans="37:38" x14ac:dyDescent="0.3">
+    <row r="95" spans="37:38">
       <c r="AK95">
         <v>3.2890000000000003E-2</v>
       </c>
@@ -31674,7 +31804,7 @@
         <v>8.1240999999999994E-2</v>
       </c>
     </row>
-    <row r="96" spans="37:38" x14ac:dyDescent="0.3">
+    <row r="96" spans="37:38">
       <c r="AK96">
         <v>3.2705999999999999E-2</v>
       </c>
@@ -31682,7 +31812,7 @@
         <v>8.1233E-2</v>
       </c>
     </row>
-    <row r="97" spans="37:38" x14ac:dyDescent="0.3">
+    <row r="97" spans="37:38">
       <c r="AK97">
         <v>3.2537000000000003E-2</v>
       </c>
@@ -31690,7 +31820,7 @@
         <v>8.1236000000000003E-2</v>
       </c>
     </row>
-    <row r="98" spans="37:38" x14ac:dyDescent="0.3">
+    <row r="98" spans="37:38">
       <c r="AK98">
         <v>3.2381E-2</v>
       </c>
@@ -31698,7 +31828,7 @@
         <v>8.1215999999999997E-2</v>
       </c>
     </row>
-    <row r="99" spans="37:38" x14ac:dyDescent="0.3">
+    <row r="99" spans="37:38">
       <c r="AK99">
         <v>3.2238999999999997E-2</v>
       </c>
@@ -31706,7 +31836,7 @@
         <v>8.1236000000000003E-2</v>
       </c>
     </row>
-    <row r="100" spans="37:38" x14ac:dyDescent="0.3">
+    <row r="100" spans="37:38">
       <c r="AL100">
         <v>8.1298999999999996E-2</v>
       </c>
@@ -31722,13 +31852,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN100"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40">
       <c r="AK1">
         <v>2.2688860000000002</v>
       </c>
@@ -31742,7 +31872,7 @@
         <v>0.38773800000000003</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:40">
       <c r="A2" t="s">
         <v>216</v>
       </c>
@@ -31759,7 +31889,7 @@
         <v>0.38003100000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:40">
       <c r="AK3">
         <v>2.2615569999999998</v>
       </c>
@@ -31773,7 +31903,7 @@
         <v>0.38185799999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -31790,7 +31920,7 @@
         <v>0.37551800000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40">
       <c r="AK5">
         <v>2.2584490000000002</v>
       </c>
@@ -31804,7 +31934,7 @@
         <v>0.38353799999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40">
       <c r="B6" t="s">
         <v>58</v>
       </c>
@@ -31837,7 +31967,7 @@
         <v>0.348582</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:40">
       <c r="B7" s="23" t="s">
         <v>57</v>
       </c>
@@ -31869,7 +31999,7 @@
         <v>0.34615499999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:40">
       <c r="AK8">
         <v>2.220825</v>
       </c>
@@ -31880,7 +32010,7 @@
         <v>0.34243699999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:40">
       <c r="AK9">
         <v>1.73889</v>
       </c>
@@ -31891,7 +32021,7 @@
         <v>0.34010200000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:40">
       <c r="AK10">
         <v>1.0463119999999999</v>
       </c>
@@ -31902,7 +32032,7 @@
         <v>0.33748499999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:40">
       <c r="AK11">
         <v>0.634571</v>
       </c>
@@ -31910,7 +32040,7 @@
         <v>0.27840500000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:40">
       <c r="AK12">
         <v>0.45740199999999998</v>
       </c>
@@ -31918,7 +32048,7 @@
         <v>0.26591599999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:40">
       <c r="AK13">
         <v>0.37044199999999999</v>
       </c>
@@ -31926,7 +32056,7 @@
         <v>0.25661699999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:40">
       <c r="AK14">
         <v>0.31185800000000002</v>
       </c>
@@ -31934,7 +32064,7 @@
         <v>0.24909899999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:40">
       <c r="AK15">
         <v>0.27400799999999997</v>
       </c>
@@ -31942,7 +32072,7 @@
         <v>0.24618899999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:40">
       <c r="AK16">
         <v>0.23713400000000001</v>
       </c>
@@ -31950,7 +32080,7 @@
         <v>0.24290100000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:38">
       <c r="AK17">
         <v>0.217219</v>
       </c>
@@ -31958,7 +32088,7 @@
         <v>0.239457</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:38">
       <c r="AK18">
         <v>0.210456</v>
       </c>
@@ -31966,7 +32096,7 @@
         <v>0.23069600000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:38">
       <c r="AK19">
         <v>0.20933299999999999</v>
       </c>
@@ -31974,7 +32104,7 @@
         <v>0.22972600000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:38">
       <c r="AK20">
         <v>0.22550000000000001</v>
       </c>
@@ -31982,7 +32112,7 @@
         <v>0.22695599999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:38">
       <c r="AK21">
         <v>0.230632</v>
       </c>
@@ -31990,7 +32120,7 @@
         <v>0.22454399999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:38">
       <c r="AK22">
         <v>0.24007800000000001</v>
       </c>
@@ -31998,7 +32128,7 @@
         <v>0.22070600000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:38">
       <c r="AK23">
         <v>0.23081499999999999</v>
       </c>
@@ -32006,7 +32136,7 @@
         <v>0.22140499999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:38">
       <c r="AK24">
         <v>0.22242400000000001</v>
       </c>
@@ -32014,7 +32144,7 @@
         <v>0.214667</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:38">
       <c r="AK25">
         <v>0.14893899999999999</v>
       </c>
@@ -32022,7 +32152,7 @@
         <v>0.211089</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:38">
       <c r="AK26">
         <v>0.13053300000000001</v>
       </c>
@@ -32030,7 +32160,7 @@
         <v>0.21174799999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:38">
       <c r="AK27">
         <v>0.11293300000000001</v>
       </c>
@@ -32038,7 +32168,7 @@
         <v>0.20741999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:38">
       <c r="A28" t="s">
         <v>45</v>
       </c>
@@ -32061,7 +32191,7 @@
         <v>0.220001</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:38">
       <c r="A29" t="s">
         <v>46</v>
       </c>
@@ -32084,7 +32214,7 @@
         <v>0.209151</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:38">
       <c r="A30" t="s">
         <v>63</v>
       </c>
@@ -32107,7 +32237,7 @@
         <v>0.215669</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:38">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -32130,7 +32260,7 @@
         <v>0.21432399999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:38">
       <c r="F32" s="28"/>
       <c r="H32" s="28"/>
       <c r="J32" s="28"/>
@@ -32142,7 +32272,7 @@
         <v>0.20474100000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:38">
       <c r="A33" t="s">
         <v>49</v>
       </c>
@@ -32165,7 +32295,7 @@
         <v>0.214308</v>
       </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:38">
       <c r="A34" t="s">
         <v>51</v>
       </c>
@@ -32188,7 +32318,7 @@
         <v>0.20106499999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:38">
       <c r="A35" t="s">
         <v>52</v>
       </c>
@@ -32211,7 +32341,7 @@
         <v>0.19885800000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:38">
       <c r="F36" s="28"/>
       <c r="H36" s="28"/>
       <c r="J36" s="28"/>
@@ -32223,7 +32353,7 @@
         <v>0.200319</v>
       </c>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:38">
       <c r="A37" t="s">
         <v>50</v>
       </c>
@@ -32246,7 +32376,7 @@
         <v>0.19826099999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:38">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -32269,7 +32399,7 @@
         <v>0.19746</v>
       </c>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:38">
       <c r="A39" t="s">
         <v>48</v>
       </c>
@@ -32292,7 +32422,7 @@
         <v>0.19777900000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:38">
       <c r="AK40">
         <v>4.6206999999999998E-2</v>
       </c>
@@ -32300,7 +32430,7 @@
         <v>0.19487399999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:38">
       <c r="A41" t="s">
         <v>222</v>
       </c>
@@ -32311,7 +32441,7 @@
         <v>0.19414300000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:38">
       <c r="A42" t="s">
         <v>238</v>
       </c>
@@ -32322,7 +32452,7 @@
         <v>0.19648699999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:38">
       <c r="AK43">
         <v>4.2731999999999999E-2</v>
       </c>
@@ -32330,7 +32460,7 @@
         <v>0.194156</v>
       </c>
     </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:38">
       <c r="A44" t="s">
         <v>118</v>
       </c>
@@ -32341,7 +32471,7 @@
         <v>0.190049</v>
       </c>
     </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:38">
       <c r="AK45">
         <v>4.1315999999999999E-2</v>
       </c>
@@ -32349,7 +32479,7 @@
         <v>0.189412</v>
       </c>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:38">
       <c r="B46" t="s">
         <v>239</v>
       </c>
@@ -32360,7 +32490,7 @@
         <v>0.19702700000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:38">
       <c r="B47" t="s">
         <v>220</v>
       </c>
@@ -32371,7 +32501,7 @@
         <v>0.192084</v>
       </c>
     </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:38">
       <c r="B48" t="s">
         <v>221</v>
       </c>
@@ -32382,7 +32512,7 @@
         <v>0.19348899999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:38">
       <c r="B49" t="s">
         <v>225</v>
       </c>
@@ -32393,7 +32523,7 @@
         <v>0.19145699999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:38">
       <c r="AK50">
         <v>3.8165999999999999E-2</v>
       </c>
@@ -32401,7 +32531,7 @@
         <v>0.189688</v>
       </c>
     </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:38">
       <c r="C51" t="s">
         <v>223</v>
       </c>
@@ -32409,7 +32539,7 @@
         <v>3.7623999999999998E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:38">
       <c r="C52" t="s">
         <v>224</v>
       </c>
@@ -32417,12 +32547,12 @@
         <v>3.7144000000000003E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:38">
       <c r="AK53">
         <v>3.6681999999999999E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:38">
       <c r="B54" t="s">
         <v>226</v>
       </c>
@@ -32430,7 +32560,7 @@
         <v>3.6202999999999999E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:38">
       <c r="B55" t="s">
         <v>227</v>
       </c>
@@ -32438,12 +32568,12 @@
         <v>3.5826999999999998E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:38">
       <c r="AK56">
         <v>3.5477000000000002E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:38">
       <c r="A57" t="s">
         <v>228</v>
       </c>
@@ -32451,12 +32581,12 @@
         <v>3.5219E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:38">
       <c r="AK58">
         <v>3.4828999999999999E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:38">
       <c r="B59" s="52" t="s">
         <v>211</v>
       </c>
@@ -32464,7 +32594,7 @@
         <v>3.4644000000000001E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:38">
       <c r="B60" s="52" t="s">
         <v>212</v>
       </c>
@@ -32472,7 +32602,7 @@
         <v>3.4315999999999999E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:38">
       <c r="B61" s="52" t="s">
         <v>269</v>
       </c>
@@ -32480,197 +32610,197 @@
         <v>3.4007999999999997E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:38">
       <c r="AK62">
         <v>3.3721000000000001E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:38">
       <c r="AK63">
         <v>3.3523999999999998E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:38">
       <c r="AK64">
         <v>3.3263000000000001E-2</v>
       </c>
     </row>
-    <row r="65" spans="37:37" x14ac:dyDescent="0.3">
+    <row r="65" spans="37:37">
       <c r="AK65">
         <v>3.3151E-2</v>
       </c>
     </row>
-    <row r="66" spans="37:37" x14ac:dyDescent="0.3">
+    <row r="66" spans="37:37">
       <c r="AK66">
         <v>3.2969999999999999E-2</v>
       </c>
     </row>
-    <row r="67" spans="37:37" x14ac:dyDescent="0.3">
+    <row r="67" spans="37:37">
       <c r="AK67">
         <v>3.2673000000000001E-2</v>
       </c>
     </row>
-    <row r="68" spans="37:37" x14ac:dyDescent="0.3">
+    <row r="68" spans="37:37">
       <c r="AK68">
         <v>3.2549000000000002E-2</v>
       </c>
     </row>
-    <row r="69" spans="37:37" x14ac:dyDescent="0.3">
+    <row r="69" spans="37:37">
       <c r="AK69">
         <v>3.2474999999999997E-2</v>
       </c>
     </row>
-    <row r="70" spans="37:37" x14ac:dyDescent="0.3">
+    <row r="70" spans="37:37">
       <c r="AK70">
         <v>3.2329999999999998E-2</v>
       </c>
     </row>
-    <row r="71" spans="37:37" x14ac:dyDescent="0.3">
+    <row r="71" spans="37:37">
       <c r="AK71">
         <v>3.1920999999999998E-2</v>
       </c>
     </row>
-    <row r="72" spans="37:37" x14ac:dyDescent="0.3">
+    <row r="72" spans="37:37">
       <c r="AK72">
         <v>3.1819E-2</v>
       </c>
     </row>
-    <row r="73" spans="37:37" x14ac:dyDescent="0.3">
+    <row r="73" spans="37:37">
       <c r="AK73">
         <v>3.1639E-2</v>
       </c>
     </row>
-    <row r="74" spans="37:37" x14ac:dyDescent="0.3">
+    <row r="74" spans="37:37">
       <c r="AK74">
         <v>3.141E-2</v>
       </c>
     </row>
-    <row r="75" spans="37:37" x14ac:dyDescent="0.3">
+    <row r="75" spans="37:37">
       <c r="AK75">
         <v>3.1223999999999998E-2</v>
       </c>
     </row>
-    <row r="76" spans="37:37" x14ac:dyDescent="0.3">
+    <row r="76" spans="37:37">
       <c r="AK76">
         <v>3.1139E-2</v>
       </c>
     </row>
-    <row r="77" spans="37:37" x14ac:dyDescent="0.3">
+    <row r="77" spans="37:37">
       <c r="AK77">
         <v>3.0969E-2</v>
       </c>
     </row>
-    <row r="78" spans="37:37" x14ac:dyDescent="0.3">
+    <row r="78" spans="37:37">
       <c r="AK78">
         <v>3.0811000000000002E-2</v>
       </c>
     </row>
-    <row r="79" spans="37:37" x14ac:dyDescent="0.3">
+    <row r="79" spans="37:37">
       <c r="AK79">
         <v>3.0512000000000001E-2</v>
       </c>
     </row>
-    <row r="80" spans="37:37" x14ac:dyDescent="0.3">
+    <row r="80" spans="37:37">
       <c r="AK80">
         <v>3.0401999999999998E-2</v>
       </c>
     </row>
-    <row r="81" spans="37:37" x14ac:dyDescent="0.3">
+    <row r="81" spans="37:37">
       <c r="AK81">
         <v>3.0213E-2</v>
       </c>
     </row>
-    <row r="82" spans="37:37" x14ac:dyDescent="0.3">
+    <row r="82" spans="37:37">
       <c r="AK82">
         <v>3.0287999999999999E-2</v>
       </c>
     </row>
-    <row r="83" spans="37:37" x14ac:dyDescent="0.3">
+    <row r="83" spans="37:37">
       <c r="AK83">
         <v>3.0051999999999999E-2</v>
       </c>
     </row>
-    <row r="84" spans="37:37" x14ac:dyDescent="0.3">
+    <row r="84" spans="37:37">
       <c r="AK84">
         <v>2.9950000000000001E-2</v>
       </c>
     </row>
-    <row r="85" spans="37:37" x14ac:dyDescent="0.3">
+    <row r="85" spans="37:37">
       <c r="AK85">
         <v>2.9857000000000002E-2</v>
       </c>
     </row>
-    <row r="86" spans="37:37" x14ac:dyDescent="0.3">
+    <row r="86" spans="37:37">
       <c r="AK86">
         <v>2.9683999999999999E-2</v>
       </c>
     </row>
-    <row r="87" spans="37:37" x14ac:dyDescent="0.3">
+    <row r="87" spans="37:37">
       <c r="AK87">
         <v>2.9596000000000001E-2</v>
       </c>
     </row>
-    <row r="88" spans="37:37" x14ac:dyDescent="0.3">
+    <row r="88" spans="37:37">
       <c r="AK88">
         <v>2.9448999999999999E-2</v>
       </c>
     </row>
-    <row r="89" spans="37:37" x14ac:dyDescent="0.3">
+    <row r="89" spans="37:37">
       <c r="AK89">
         <v>2.9287000000000001E-2</v>
       </c>
     </row>
-    <row r="90" spans="37:37" x14ac:dyDescent="0.3">
+    <row r="90" spans="37:37">
       <c r="AK90">
         <v>2.9134E-2</v>
       </c>
     </row>
-    <row r="91" spans="37:37" x14ac:dyDescent="0.3">
+    <row r="91" spans="37:37">
       <c r="AK91">
         <v>2.9072000000000001E-2</v>
       </c>
     </row>
-    <row r="92" spans="37:37" x14ac:dyDescent="0.3">
+    <row r="92" spans="37:37">
       <c r="AK92">
         <v>2.9012E-2</v>
       </c>
     </row>
-    <row r="93" spans="37:37" x14ac:dyDescent="0.3">
+    <row r="93" spans="37:37">
       <c r="AK93">
         <v>2.8809999999999999E-2</v>
       </c>
     </row>
-    <row r="94" spans="37:37" x14ac:dyDescent="0.3">
+    <row r="94" spans="37:37">
       <c r="AK94">
         <v>2.8760000000000001E-2</v>
       </c>
     </row>
-    <row r="95" spans="37:37" x14ac:dyDescent="0.3">
+    <row r="95" spans="37:37">
       <c r="AK95">
         <v>2.8636000000000002E-2</v>
       </c>
     </row>
-    <row r="96" spans="37:37" x14ac:dyDescent="0.3">
+    <row r="96" spans="37:37">
       <c r="AK96">
         <v>2.8650999999999999E-2</v>
       </c>
     </row>
-    <row r="97" spans="37:37" x14ac:dyDescent="0.3">
+    <row r="97" spans="37:37">
       <c r="AK97">
         <v>2.8523E-2</v>
       </c>
     </row>
-    <row r="98" spans="37:37" x14ac:dyDescent="0.3">
+    <row r="98" spans="37:37">
       <c r="AK98">
         <v>2.8362999999999999E-2</v>
       </c>
     </row>
-    <row r="99" spans="37:37" x14ac:dyDescent="0.3">
+    <row r="99" spans="37:37">
       <c r="AK99">
         <v>2.8275000000000002E-2</v>
       </c>
     </row>
-    <row r="100" spans="37:37" x14ac:dyDescent="0.3">
+    <row r="100" spans="37:37">
       <c r="AK100">
         <v>2.8126999999999999E-2</v>
       </c>
@@ -32690,34 +32820,34 @@
       <selection activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>240</v>
       </c>

--- a/Documentation.xlsx
+++ b/Documentation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8616"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8616" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Первичная страница" sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="282">
   <si>
     <t>Количество изображений: 60 000</t>
   </si>
@@ -1953,22 +1953,37 @@
     <t>Выставить макросы в файлах Trainer.cpp, ConvolutionalLayer.cu, FullyConnectedLayer.cu</t>
   </si>
   <si>
-    <t>VALIDATION_SET_SIZE - размер верифицирующего сета данных</t>
-  </si>
-  <si>
-    <t>TRAINING_SET_SIZE- размер тренировочного сета данных</t>
-  </si>
-  <si>
     <t>LearningRate - скорость обучения</t>
-  </si>
-  <si>
-    <t>Основные макросы:</t>
   </si>
   <si>
     <t>number_of_images - можно использовать не все 60 000 изображений, а ограничаить их количество ("-1" -  не менять размер выборки, т.е. оставить 60 000)</t>
   </si>
   <si>
-    <t>number_of_test_images - количество изображений из тренировочного сета для верификации и прослеживания обучения НС</t>
+    <t>number_of_validation_images - количество изображений из тренировочного сета для верификации и прослеживания обучения НС</t>
+  </si>
+  <si>
+    <t>Y - коэффициент для стимуляции нейронов</t>
+  </si>
+  <si>
+    <t>GAM - коээффициент для применения оптимизации по методу Нестерова</t>
+  </si>
+  <si>
+    <t>Примечание: остальные макросы предназначены для работы с CUDA (их лучше не менять)</t>
+  </si>
+  <si>
+    <t>C:\Program Files\NVIDIA GPU Computing Toolkit\CUDA\v10.2\bin</t>
+  </si>
+  <si>
+    <t>C:\Program Files\NVIDIA GPU Computing Toolkit\CUDA\v10.2\libnvvp</t>
+  </si>
+  <si>
+    <t>Убедитесь, что на рабочей станции установлен NVIDIA GPU Computing Toolkit и следующие пути указаны в переменных среды</t>
+  </si>
+  <si>
+    <t>Также необходимы библиотека Opencv, реализующая алгоритмы компьютерного видения. Путь до папки bin также должен быть установлен.</t>
+  </si>
+  <si>
+    <t>Примечание: на данном этапе можно обойтись и без Opencv, но она будет нужна при классификации эмоций</t>
   </si>
 </sst>
 </file>
@@ -24168,10 +24183,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C68"/>
+  <dimension ref="A2:D79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="P69" sqref="P69"/>
+    <sheetView topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -24226,118 +24241,143 @@
         <v>250</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:4">
       <c r="B42" s="52" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
-      <c r="B43" s="52" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="C45" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="C46" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="C47" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="C48" t="s">
-        <v>259</v>
+    <row r="44" spans="1:4">
+      <c r="C44" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="D46" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="D47" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="49" spans="2:3">
       <c r="C49" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3">
-      <c r="C50" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
     </row>
     <row r="51" spans="2:3">
-      <c r="C51" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3">
-      <c r="C52" t="s">
-        <v>263</v>
+      <c r="C51" s="60" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="53" spans="2:3">
-      <c r="C53" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3">
-      <c r="C54" t="s">
-        <v>275</v>
+      <c r="B53" s="52" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="55" spans="2:3">
       <c r="C55" t="s">
-        <v>276</v>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3">
+      <c r="C56" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="57" spans="2:3">
-      <c r="C57" s="60" t="s">
-        <v>265</v>
+      <c r="C57" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3">
+      <c r="C58" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="59" spans="2:3">
-      <c r="B59" s="52" t="s">
-        <v>270</v>
+      <c r="C59" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3">
+      <c r="C60" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="61" spans="2:3">
       <c r="C61" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
     </row>
     <row r="62" spans="2:3">
       <c r="C62" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
     </row>
     <row r="63" spans="2:3">
       <c r="C63" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="64" spans="2:3">
       <c r="C64" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3">
+      <c r="C65" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="66" spans="2:2">
-      <c r="B66" s="52" t="s">
+    <row r="67" spans="2:3">
+      <c r="C67" s="60" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3">
+      <c r="B69" s="52" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3">
+      <c r="C71" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3">
+      <c r="C72" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3">
+      <c r="C73" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3">
+      <c r="C75" s="60" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3">
+      <c r="B77" s="52" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="67" spans="2:2">
-      <c r="B67" s="52" t="s">
+    <row r="78" spans="2:3">
+      <c r="B78" s="52" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="68" spans="2:2">
-      <c r="B68" s="52" t="s">
+    <row r="79" spans="2:3">
+      <c r="B79" s="52" t="s">
         <v>268</v>
       </c>
     </row>
@@ -24352,8 +24392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ162"/>
   <sheetViews>
-    <sheetView zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L162" sqref="L162"/>
+    <sheetView topLeftCell="A126" zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -24902,7 +24942,7 @@
         <v>1.984307</v>
       </c>
     </row>
-    <row r="41" spans="1:27" ht="15">
+    <row r="41" spans="1:27">
       <c r="A41" s="42" t="s">
         <v>72</v>
       </c>
@@ -24926,7 +24966,7 @@
         <v>1.9585239999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:27" ht="15">
+    <row r="42" spans="1:27">
       <c r="A42" s="26" t="s">
         <v>73</v>
       </c>
@@ -24950,7 +24990,7 @@
         <v>1.933746</v>
       </c>
     </row>
-    <row r="43" spans="1:27" ht="15">
+    <row r="43" spans="1:27">
       <c r="A43" s="26" t="s">
         <v>74</v>
       </c>
@@ -24974,7 +25014,7 @@
         <v>1.909783</v>
       </c>
     </row>
-    <row r="44" spans="1:27" ht="15">
+    <row r="44" spans="1:27">
       <c r="A44" s="26" t="s">
         <v>75</v>
       </c>
@@ -24998,7 +25038,7 @@
         <v>1.886684</v>
       </c>
     </row>
-    <row r="45" spans="1:27" ht="15">
+    <row r="45" spans="1:27">
       <c r="A45" s="26" t="s">
         <v>76</v>
       </c>
@@ -25044,7 +25084,7 @@
         <v>1.8417399999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:27" ht="15">
+    <row r="47" spans="1:27">
       <c r="A47" s="26" t="s">
         <v>77</v>
       </c>
@@ -25068,7 +25108,7 @@
         <v>1.8199890000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:27" ht="15">
+    <row r="48" spans="1:27">
       <c r="A48" s="26" t="s">
         <v>78</v>
       </c>
@@ -25092,7 +25132,7 @@
         <v>1.7988930000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:27" ht="15">
+    <row r="49" spans="1:27">
       <c r="A49" s="26" t="s">
         <v>79</v>
       </c>
@@ -25116,7 +25156,7 @@
         <v>1.7784</v>
       </c>
     </row>
-    <row r="50" spans="1:27" ht="15">
+    <row r="50" spans="1:27">
       <c r="A50" s="44" t="s">
         <v>80</v>
       </c>
@@ -25140,7 +25180,7 @@
         <v>1.758146</v>
       </c>
     </row>
-    <row r="51" spans="1:27" ht="15">
+    <row r="51" spans="1:27">
       <c r="A51" s="26" t="s">
         <v>81</v>
       </c>
@@ -25164,7 +25204,7 @@
         <v>1.737903</v>
       </c>
     </row>
-    <row r="52" spans="1:27" ht="15">
+    <row r="52" spans="1:27">
       <c r="A52" s="26" t="s">
         <v>82</v>
       </c>
@@ -25188,7 +25228,7 @@
         <v>1.7181960000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:27" ht="15">
+    <row r="53" spans="1:27">
       <c r="A53" s="26" t="s">
         <v>83</v>
       </c>
@@ -25212,7 +25252,7 @@
         <v>1.699141</v>
       </c>
     </row>
-    <row r="54" spans="1:27" ht="15">
+    <row r="54" spans="1:27">
       <c r="A54" s="26" t="s">
         <v>84</v>
       </c>
@@ -25236,7 +25276,7 @@
         <v>1.680653</v>
       </c>
     </row>
-    <row r="55" spans="1:27" ht="15">
+    <row r="55" spans="1:27">
       <c r="A55" s="26" t="s">
         <v>85</v>
       </c>
@@ -25260,7 +25300,7 @@
         <v>1.6627209999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:27" ht="15">
+    <row r="56" spans="1:27">
       <c r="A56" s="26" t="s">
         <v>86</v>
       </c>
@@ -25284,7 +25324,7 @@
         <v>1.6447130000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:27" ht="15">
+    <row r="57" spans="1:27">
       <c r="A57" s="26" t="s">
         <v>87</v>
       </c>
@@ -25308,7 +25348,7 @@
         <v>1.627313</v>
       </c>
     </row>
-    <row r="58" spans="1:27" ht="15">
+    <row r="58" spans="1:27">
       <c r="A58" s="26" t="s">
         <v>88</v>
       </c>
@@ -25332,7 +25372,7 @@
         <v>1.610466</v>
       </c>
     </row>
-    <row r="59" spans="1:27" ht="15">
+    <row r="59" spans="1:27">
       <c r="A59" s="26" t="s">
         <v>89</v>
       </c>
@@ -25356,7 +25396,7 @@
         <v>1.593915</v>
       </c>
     </row>
-    <row r="60" spans="1:27" ht="15">
+    <row r="60" spans="1:27">
       <c r="A60" s="26" t="s">
         <v>90</v>
       </c>
@@ -25380,7 +25420,7 @@
         <v>1.577577</v>
       </c>
     </row>
-    <row r="61" spans="1:27" ht="15">
+    <row r="61" spans="1:27">
       <c r="A61" s="26" t="s">
         <v>91</v>
       </c>
@@ -25404,7 +25444,7 @@
         <v>1.561391</v>
       </c>
     </row>
-    <row r="62" spans="1:27" ht="15">
+    <row r="62" spans="1:27">
       <c r="A62" s="26" t="s">
         <v>92</v>
       </c>
@@ -25428,7 +25468,7 @@
         <v>1.5456719999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:27" ht="15">
+    <row r="63" spans="1:27">
       <c r="A63" s="26" t="s">
         <v>93</v>
       </c>
@@ -25452,7 +25492,7 @@
         <v>1.5302359999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:27" ht="15">
+    <row r="64" spans="1:27">
       <c r="A64" s="26" t="s">
         <v>94</v>
       </c>
@@ -25476,7 +25516,7 @@
         <v>1.5151190000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:27" ht="15">
+    <row r="65" spans="1:27">
       <c r="A65" s="44" t="s">
         <v>95</v>
       </c>
@@ -25500,7 +25540,7 @@
         <v>1.5002770000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:27" ht="15">
+    <row r="66" spans="1:27">
       <c r="A66" s="26" t="s">
         <v>30</v>
       </c>
@@ -25524,7 +25564,7 @@
         <v>1.4856670000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:27" ht="15">
+    <row r="67" spans="1:27">
       <c r="A67" s="27" t="s">
         <v>96</v>
       </c>
@@ -27772,7 +27812,7 @@
       <c r="AB26" s="2"/>
       <c r="AC26" s="3"/>
     </row>
-    <row r="27" spans="2:29" ht="15">
+    <row r="27" spans="2:29">
       <c r="R27" s="25" t="s">
         <v>38</v>
       </c>
@@ -28015,7 +28055,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN205"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
@@ -28796,7 +28836,7 @@
         <v>2.0553889999999999</v>
       </c>
     </row>
-    <row r="44" spans="2:38" ht="15">
+    <row r="44" spans="2:38">
       <c r="B44" s="42" t="s">
         <v>174</v>
       </c>
@@ -28817,7 +28857,7 @@
         <v>2.041353</v>
       </c>
     </row>
-    <row r="45" spans="2:38" ht="15">
+    <row r="45" spans="2:38">
       <c r="B45" s="26" t="s">
         <v>175</v>
       </c>
@@ -28838,7 +28878,7 @@
         <v>2.0362230000000001</v>
       </c>
     </row>
-    <row r="46" spans="2:38" ht="15">
+    <row r="46" spans="2:38">
       <c r="B46" s="26" t="s">
         <v>176</v>
       </c>
@@ -28859,7 +28899,7 @@
         <v>2.007952</v>
       </c>
     </row>
-    <row r="47" spans="2:38" ht="15">
+    <row r="47" spans="2:38">
       <c r="B47" s="26" t="s">
         <v>177</v>
       </c>
@@ -28880,7 +28920,7 @@
         <v>1.992826</v>
       </c>
     </row>
-    <row r="48" spans="2:38" ht="15">
+    <row r="48" spans="2:38">
       <c r="B48" s="26" t="s">
         <v>178</v>
       </c>
@@ -28901,7 +28941,7 @@
         <v>1.98586</v>
       </c>
     </row>
-    <row r="49" spans="1:38" ht="15">
+    <row r="49" spans="1:38">
       <c r="B49" s="26" t="s">
         <v>179</v>
       </c>
@@ -28922,7 +28962,7 @@
         <v>1.9733039999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:38" ht="15">
+    <row r="50" spans="1:38">
       <c r="B50" s="26" t="s">
         <v>180</v>
       </c>
@@ -28943,7 +28983,7 @@
         <v>1.9610460000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:38" ht="15">
+    <row r="51" spans="1:38">
       <c r="B51" s="27" t="s">
         <v>181</v>
       </c>
@@ -30698,8 +30738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN100"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -31852,8 +31892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN100"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
